--- a/QuantLibXL/Data2/XLS/EUR/EUR_TenorBasisCalibration.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR/EUR_TenorBasisCalibration.xlsx
@@ -28,14 +28,14 @@
     <definedName name="QuoteSuffix">'[1]General Settings'!$L$12</definedName>
     <definedName name="SerializationPath">'[1]General Settings'!$L$5</definedName>
     <definedName name="Serialize">'[1]General Settings'!$L$4</definedName>
-    <definedName name="trigger" localSheetId="0">Sheet1!$V$3</definedName>
+    <definedName name="trigger" localSheetId="0">Sheet1!$W$3</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="75">
   <si>
     <t>index</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>RH</t>
+  </si>
+  <si>
+    <t>Wheigths</t>
   </si>
 </sst>
 </file>
@@ -413,7 +416,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -484,6 +487,14 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -868,45 +879,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X57"/>
+  <dimension ref="A1:Z57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="2" max="2" width="4.140625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="7" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="19.28515625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="20.28515625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="11.7109375" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="17.28515625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="15.140625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="10" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="9" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="4.85546875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="2.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="4" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="4.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="7" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="19.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="20.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="11.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="17.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="15.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="10" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="9" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="4.85546875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="2.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="1"/>
-    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="20" max="20" width="9" style="1" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="1"/>
+    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="H1" s="1" t="str">
-        <f>_xll.qlEuribor(,V4,,,trigger)</f>
-        <v>obj_008f3#0006</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <f>_xll.qlEuribor(,W4,,,trigger)</f>
+        <v>obj_00854#0003</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -955,8 +968,11 @@
       <c r="S2" s="22" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="T2" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="str">
         <f t="shared" ref="A3" si="0">B3&amp;"M"</f>
         <v>1M</v>
@@ -965,7 +981,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f t="shared" ref="C3:C20" si="1">"x"&amp;B3+SUBSTITUTE($V$4,"M","")&amp;"F"</f>
+        <f t="shared" ref="C3:C20" si="1">"x"&amp;B3+SUBSTITUTE($W$4,"M","")&amp;"F"</f>
         <v>x7F</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -975,16 +991,16 @@
         <v>59</v>
       </c>
       <c r="F3" s="2" t="str">
-        <f t="shared" ref="F3:F20" si="2">PROPER(Currency)&amp;FamilyName&amp;$V$4</f>
+        <f>PROPER(Currency)&amp;FamilyName&amp;$W$4</f>
         <v>Euribor6M</v>
       </c>
       <c r="G3" s="2" t="str">
-        <f t="shared" ref="G3:G20" si="3">"EUR"&amp;B3&amp;C3&amp;"_Quote"</f>
+        <f t="shared" ref="G3:G20" si="2">"EUR"&amp;B3&amp;C3&amp;"_Quote"</f>
         <v>EUR1x7F_Quote</v>
       </c>
       <c r="H3" s="2" t="str">
         <f>_xll.qlFraRateHelper(,G3,A3,F3,Permanent,trigger,ObjectOverwrite)</f>
-        <v>obj_008ec#0007</v>
+        <v>obj_00842#0004</v>
       </c>
       <c r="I3" s="15" t="b">
         <v>1</v>
@@ -997,7 +1013,7 @@
       </c>
       <c r="M3" s="24" t="str">
         <f t="array" ref="M3:M57">_xll.qlRateHelperSelection(_xll.ohFilter(H3:H57,I3:I57),_xll.ohFilter(Priority,I3:I57),0,0,0,,_xll.ohFilter(MinDistance,I3:I57),trigger)</f>
-        <v>obj_008ec</v>
+        <v>obj_00842</v>
       </c>
       <c r="N3" s="24" t="str">
         <f>_xll.qlRateHelperQuoteName(M3,trigger)</f>
@@ -1016,21 +1032,25 @@
         <v>42429</v>
       </c>
       <c r="R3" s="31">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P3)</f>
-        <v>5.9989777940974373E-4</v>
+        <f>_xll.qlTenorBasisForwardRate($W$13,P3)</f>
+        <v>6.0023397223145727E-4</v>
       </c>
       <c r="S3" s="31">
         <f>O3-R3</f>
-        <v>4.0102220590256324E-5</v>
-      </c>
-      <c r="U3" s="37" t="s">
+        <v>3.976602776854278E-5</v>
+      </c>
+      <c r="T3" s="39">
+        <f>IF(ISERROR(M3),#N/A,1)</f>
+        <v>1</v>
+      </c>
+      <c r="V3" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="V3" s="36"/>
-    </row>
-    <row r="4" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W3" s="36"/>
+    </row>
+    <row r="4" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
-        <f t="shared" ref="A4:A20" si="4">B4&amp;"M"</f>
+        <f t="shared" ref="A4:A20" si="3">B4&amp;"M"</f>
         <v>2M</v>
       </c>
       <c r="B4" s="7">
@@ -1047,16 +1067,16 @@
         <v>59</v>
       </c>
       <c r="F4" s="7" t="str">
+        <f>PROPER(Currency)&amp;FamilyName&amp;$W$4</f>
+        <v>Euribor6M</v>
+      </c>
+      <c r="G4" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>Euribor6M</v>
-      </c>
-      <c r="G4" s="7" t="str">
-        <f t="shared" si="3"/>
         <v>EUR2x8F_Quote</v>
       </c>
       <c r="H4" s="7" t="str">
         <f>_xll.qlFraRateHelper(,G4,A4,F4,Permanent,trigger,ObjectOverwrite)</f>
-        <v>obj_008e6#0007</v>
+        <v>obj_00851#0004</v>
       </c>
       <c r="I4" s="16" t="b">
         <v>1</v>
@@ -1068,7 +1088,7 @@
         <v>1</v>
       </c>
       <c r="M4" s="26" t="str">
-        <v>obj_008e6</v>
+        <v>obj_00851</v>
       </c>
       <c r="N4" s="26" t="str">
         <f>_xll.qlRateHelperQuoteName(M4,trigger)</f>
@@ -1080,30 +1100,34 @@
       </c>
       <c r="P4" s="27">
         <f>_xll.qlRateHelperEarliestDate(M4,trigger)</f>
-        <v>42276</v>
+        <v>42277</v>
       </c>
       <c r="Q4" s="27">
         <f>_xll.qlRateHelperLatestDate(M4,trigger)</f>
-        <v>42458</v>
+        <v>42460</v>
       </c>
       <c r="R4" s="31">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P4)</f>
-        <v>6.4688358694543714E-4</v>
+        <f>_xll.qlTenorBasisForwardRate($W$13,P4)</f>
+        <v>6.4769126942497543E-4</v>
       </c>
       <c r="S4" s="31">
-        <f t="shared" ref="S4:S57" si="5">O4-R4</f>
-        <v>2.3116413054562884E-5</v>
-      </c>
-      <c r="U4" s="37" t="s">
+        <f t="shared" ref="S4:S57" si="4">O4-R4</f>
+        <v>2.2308730575024594E-5</v>
+      </c>
+      <c r="T4" s="39">
+        <f t="shared" ref="T4:T57" si="5">IF(ISERROR(M4),#N/A,1)</f>
+        <v>1</v>
+      </c>
+      <c r="V4" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="V4" s="33" t="s">
+      <c r="W4" s="33" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3M</v>
       </c>
       <c r="B5" s="7">
@@ -1120,16 +1144,16 @@
         <v>59</v>
       </c>
       <c r="F5" s="7" t="str">
+        <f>PROPER(Currency)&amp;FamilyName&amp;$W$4</f>
+        <v>Euribor6M</v>
+      </c>
+      <c r="G5" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>Euribor6M</v>
-      </c>
-      <c r="G5" s="7" t="str">
-        <f t="shared" si="3"/>
         <v>EUR3x9F_Quote</v>
       </c>
       <c r="H5" s="7" t="str">
         <f>_xll.qlFraRateHelper(,G5,A5,F5,Permanent,trigger,ObjectOverwrite)</f>
-        <v>obj_008ee#0007</v>
+        <v>obj_00846#0004</v>
       </c>
       <c r="I5" s="16" t="b">
         <v>1</v>
@@ -1141,7 +1165,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="26" t="str">
-        <v>obj_008ee</v>
+        <v>obj_00846</v>
       </c>
       <c r="N5" s="26" t="str">
         <f>_xll.qlRateHelperQuoteName(M5,trigger)</f>
@@ -1153,31 +1177,35 @@
       </c>
       <c r="P5" s="27">
         <f>_xll.qlRateHelperEarliestDate(M5,trigger)</f>
-        <v>42306</v>
+        <v>42307</v>
       </c>
       <c r="Q5" s="27">
         <f>_xll.qlRateHelperLatestDate(M5,trigger)</f>
         <v>42489</v>
       </c>
       <c r="R5" s="31">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P5)</f>
-        <v>6.7468958292937211E-4</v>
+        <f>_xll.qlTenorBasisForwardRate($W$13,P5)</f>
+        <v>6.7513504450429044E-4</v>
       </c>
       <c r="S5" s="31">
-        <f t="shared" si="5"/>
-        <v>2.5310417070627993E-5</v>
-      </c>
-      <c r="U5" s="37" t="s">
+        <f t="shared" si="4"/>
+        <v>2.4864955495709665E-5</v>
+      </c>
+      <c r="T5" s="39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V5" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="V5" s="33" t="str">
-        <f>"EURIBOR"&amp;V4</f>
+      <c r="W5" s="33" t="str">
+        <f>"EURIBOR"&amp;W4</f>
         <v>EURIBOR6M</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4M</v>
       </c>
       <c r="B6" s="7">
@@ -1194,16 +1222,16 @@
         <v>59</v>
       </c>
       <c r="F6" s="7" t="str">
+        <f>PROPER(Currency)&amp;FamilyName&amp;$W$4</f>
+        <v>Euribor6M</v>
+      </c>
+      <c r="G6" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>Euribor6M</v>
-      </c>
-      <c r="G6" s="7" t="str">
-        <f t="shared" si="3"/>
         <v>EUR4x10F_Quote</v>
       </c>
       <c r="H6" s="7" t="str">
         <f>_xll.qlFraRateHelper(,G6,A6,F6,Permanent,trigger,ObjectOverwrite)</f>
-        <v>obj_008e9#0007</v>
+        <v>obj_00845#0004</v>
       </c>
       <c r="I6" s="16" t="b">
         <v>1</v>
@@ -1215,7 +1243,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="26" t="str">
-        <v>obj_008e9</v>
+        <v>obj_00845</v>
       </c>
       <c r="N6" s="26" t="str">
         <f>_xll.qlRateHelperQuoteName(M6,trigger)</f>
@@ -1234,23 +1262,27 @@
         <v>42521</v>
       </c>
       <c r="R6" s="31">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P6)</f>
-        <v>7.2662288958162701E-4</v>
+        <f>_xll.qlTenorBasisForwardRate($W$13,P6)</f>
+        <v>7.2514506226143728E-4</v>
       </c>
       <c r="S6" s="31">
-        <f t="shared" si="5"/>
-        <v>1.3377110418373085E-5</v>
-      </c>
-      <c r="U6" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="V6" s="33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>1.4854937738562816E-5</v>
+      </c>
+      <c r="T6" s="39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V6" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="W6" s="33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5M</v>
       </c>
       <c r="B7" s="7">
@@ -1267,16 +1299,16 @@
         <v>59</v>
       </c>
       <c r="F7" s="7" t="str">
+        <f>PROPER(Currency)&amp;FamilyName&amp;$W$4</f>
+        <v>Euribor6M</v>
+      </c>
+      <c r="G7" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>Euribor6M</v>
-      </c>
-      <c r="G7" s="7" t="str">
-        <f t="shared" si="3"/>
         <v>EUR5x11F_Quote</v>
       </c>
       <c r="H7" s="7" t="str">
         <f>_xll.qlFraRateHelper(,G7,A7,F7,Permanent,trigger,ObjectOverwrite)</f>
-        <v>obj_008e4#0007</v>
+        <v>obj_0084f#0004</v>
       </c>
       <c r="I7" s="16" t="b">
         <v>1</v>
@@ -1288,7 +1320,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="26" t="str">
-        <v>obj_008e4</v>
+        <v>obj_0084f</v>
       </c>
       <c r="N7" s="26" t="str">
         <f>_xll.qlRateHelperQuoteName(M7,trigger)</f>
@@ -1300,31 +1332,35 @@
       </c>
       <c r="P7" s="27">
         <f>_xll.qlRateHelperEarliestDate(M7,trigger)</f>
-        <v>42367</v>
+        <v>42368</v>
       </c>
       <c r="Q7" s="27">
         <f>_xll.qlRateHelperLatestDate(M7,trigger)</f>
-        <v>42550</v>
+        <v>42551</v>
       </c>
       <c r="R7" s="31">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P7)</f>
-        <v>7.6584544299312127E-4</v>
+        <f>_xll.qlTenorBasisForwardRate($W$13,P7)</f>
+        <v>7.6627498028060837E-4</v>
       </c>
       <c r="S7" s="31">
-        <f t="shared" si="5"/>
-        <v>1.4154557006878826E-5</v>
-      </c>
-      <c r="U7" s="37" t="s">
+        <f t="shared" si="4"/>
+        <v>1.3725019719391723E-5</v>
+      </c>
+      <c r="T7" s="39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V7" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="V7" s="34">
+      <c r="W7" s="34">
         <f>_xll.qlCalendarAdvance("target",_xll.qlSettingsEvaluationDate(trigger),"2D","mf",,trigger)</f>
-        <v>42214</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6M</v>
       </c>
       <c r="B8" s="7">
@@ -1341,16 +1377,16 @@
         <v>59</v>
       </c>
       <c r="F8" s="7" t="str">
+        <f>PROPER(Currency)&amp;FamilyName&amp;$W$4</f>
+        <v>Euribor6M</v>
+      </c>
+      <c r="G8" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>Euribor6M</v>
-      </c>
-      <c r="G8" s="7" t="str">
-        <f t="shared" si="3"/>
         <v>EUR6x12F_Quote</v>
       </c>
       <c r="H8" s="7" t="str">
         <f>_xll.qlFraRateHelper(,G8,A8,F8,Permanent,trigger,ObjectOverwrite)</f>
-        <v>obj_008ef#0007</v>
+        <v>obj_00849#0004</v>
       </c>
       <c r="I8" s="16" t="b">
         <v>1</v>
@@ -1362,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="26" t="str">
-        <v>obj_008ef</v>
+        <v>obj_00849</v>
       </c>
       <c r="N8" s="26" t="str">
         <f>_xll.qlRateHelperQuoteName(M8,trigger)</f>
@@ -1381,23 +1417,27 @@
         <v>42580</v>
       </c>
       <c r="R8" s="31">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P8)</f>
-        <v>8.1606054517902038E-4</v>
+        <f>_xll.qlTenorBasisForwardRate($W$13,P8)</f>
+        <v>8.1541333778892191E-4</v>
       </c>
       <c r="S8" s="31">
-        <f t="shared" si="5"/>
-        <v>-6.0605451790203156E-6</v>
-      </c>
-      <c r="U8" s="37" t="s">
+        <f t="shared" si="4"/>
+        <v>-5.4133377889218444E-6</v>
+      </c>
+      <c r="T8" s="39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V8" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="V8" s="33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W8" s="41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7M</v>
       </c>
       <c r="B9" s="7">
@@ -1414,16 +1454,16 @@
         <v>59</v>
       </c>
       <c r="F9" s="7" t="str">
+        <f>PROPER(Currency)&amp;FamilyName&amp;$W$4</f>
+        <v>Euribor6M</v>
+      </c>
+      <c r="G9" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>Euribor6M</v>
-      </c>
-      <c r="G9" s="7" t="str">
-        <f t="shared" si="3"/>
         <v>EUR7x13F_Quote</v>
       </c>
       <c r="H9" s="7" t="str">
         <f>_xll.qlFraRateHelper(,G9,A9,F9,Permanent,trigger,ObjectOverwrite)</f>
-        <v>obj_008e7#0007</v>
+        <v>obj_0084a#0004</v>
       </c>
       <c r="I9" s="16" t="b">
         <v>1</v>
@@ -1435,7 +1475,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="26" t="str">
-        <v>obj_008e7</v>
+        <v>obj_0084a</v>
       </c>
       <c r="N9" s="26" t="str">
         <f>_xll.qlRateHelperQuoteName(M9,trigger)</f>
@@ -1454,27 +1494,34 @@
         <v>42613</v>
       </c>
       <c r="R9" s="31">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P9)</f>
-        <v>8.973955286060444E-4</v>
+        <f>_xll.qlTenorBasisForwardRate($W$13,P9)</f>
+        <v>8.9596999780264383E-4</v>
       </c>
       <c r="S9" s="31">
-        <f t="shared" si="5"/>
-        <v>-3.7395528606044316E-5</v>
-      </c>
-      <c r="U9" s="37" t="s">
+        <f t="shared" si="4"/>
+        <v>-3.596999780264374E-5</v>
+      </c>
+      <c r="T9" s="39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V9" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="V9" s="35">
+      <c r="W9" s="35">
         <v>1.6797625304472001E-3</v>
       </c>
-      <c r="X9" s="35">
-        <f t="array" ref="X9:X12">_xll.qlTenorBasisCoefficients(V13)</f>
+      <c r="X9" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="35">
+        <f t="array" ref="Z9:Z12">_xll.qlTenorBasisCoefficients(W13)</f>
         <v>1.6797625304472001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8M</v>
       </c>
       <c r="B10" s="7">
@@ -1491,16 +1538,16 @@
         <v>59</v>
       </c>
       <c r="F10" s="7" t="str">
+        <f>PROPER(Currency)&amp;FamilyName&amp;$W$4</f>
+        <v>Euribor6M</v>
+      </c>
+      <c r="G10" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>Euribor6M</v>
-      </c>
-      <c r="G10" s="7" t="str">
-        <f t="shared" si="3"/>
         <v>EUR8x14F_Quote</v>
       </c>
       <c r="H10" s="7" t="str">
         <f>_xll.qlFraRateHelper(,G10,A10,F10,Permanent,trigger,ObjectOverwrite)</f>
-        <v>obj_008e2#0007</v>
+        <v>obj_00850#0004</v>
       </c>
       <c r="I10" s="16" t="b">
         <v>1</v>
@@ -1512,7 +1559,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="26" t="str">
-        <v>obj_008e2</v>
+        <v>obj_00850</v>
       </c>
       <c r="N10" s="26" t="str">
         <f>_xll.qlRateHelperQuoteName(M10,trigger)</f>
@@ -1524,33 +1571,40 @@
       </c>
       <c r="P10" s="27">
         <f>_xll.qlRateHelperEarliestDate(M10,trigger)</f>
-        <v>42458</v>
+        <v>42459</v>
       </c>
       <c r="Q10" s="27">
         <f>_xll.qlRateHelperLatestDate(M10,trigger)</f>
-        <v>42642</v>
+        <v>42643</v>
       </c>
       <c r="R10" s="31">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P10)</f>
-        <v>9.4427687918288347E-4</v>
+        <f>_xll.qlTenorBasisForwardRate($W$13,P10)</f>
+        <v>9.456384718097916E-4</v>
       </c>
       <c r="S10" s="31">
-        <f t="shared" si="5"/>
-        <v>-3.4276879182883473E-5</v>
-      </c>
-      <c r="U10" s="37" t="s">
+        <f t="shared" si="4"/>
+        <v>-3.5638471809791594E-5</v>
+      </c>
+      <c r="T10" s="39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V10" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="V10" s="35">
+      <c r="W10" s="35">
         <v>7.4756504381031502E-4</v>
       </c>
-      <c r="X10" s="35">
+      <c r="X10" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="35">
         <v>7.4756504381031502E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9M</v>
       </c>
       <c r="B11" s="7">
@@ -1567,16 +1621,16 @@
         <v>59</v>
       </c>
       <c r="F11" s="7" t="str">
+        <f>PROPER(Currency)&amp;FamilyName&amp;$W$4</f>
+        <v>Euribor6M</v>
+      </c>
+      <c r="G11" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>Euribor6M</v>
-      </c>
-      <c r="G11" s="7" t="str">
-        <f t="shared" si="3"/>
         <v>EUR9x15F_Quote</v>
       </c>
       <c r="H11" s="7" t="str">
         <f>_xll.qlFraRateHelper(,G11,A11,F11,Permanent,trigger,ObjectOverwrite)</f>
-        <v>obj_008e3#0007</v>
+        <v>obj_0084e#0004</v>
       </c>
       <c r="I11" s="16" t="b">
         <v>1</v>
@@ -1588,7 +1642,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="26" t="str">
-        <v>obj_008e3</v>
+        <v>obj_0084e</v>
       </c>
       <c r="N11" s="26" t="str">
         <f>_xll.qlRateHelperQuoteName(M11,trigger)</f>
@@ -1607,26 +1661,33 @@
         <v>42674</v>
       </c>
       <c r="R11" s="31">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P11)</f>
-        <v>1.0033768006830369E-3</v>
+        <f>_xll.qlTenorBasisForwardRate($W$13,P11)</f>
+        <v>1.0027327891237127E-3</v>
       </c>
       <c r="S11" s="31">
-        <f t="shared" si="5"/>
-        <v>-3.33768006830368E-5</v>
-      </c>
-      <c r="U11" s="37" t="s">
+        <f t="shared" si="4"/>
+        <v>-3.2732789123712607E-5</v>
+      </c>
+      <c r="T11" s="39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V11" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="V11" s="35">
+      <c r="W11" s="35">
         <v>0.17</v>
       </c>
-      <c r="X11" s="35">
+      <c r="X11" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="35">
         <v>0.17</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>10M</v>
       </c>
       <c r="B12" s="7">
@@ -1643,16 +1704,16 @@
         <v>59</v>
       </c>
       <c r="F12" s="7" t="str">
+        <f>PROPER(Currency)&amp;FamilyName&amp;$W$4</f>
+        <v>Euribor6M</v>
+      </c>
+      <c r="G12" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>Euribor6M</v>
-      </c>
-      <c r="G12" s="7" t="str">
-        <f t="shared" si="3"/>
         <v>EUR10x16F_Quote</v>
       </c>
       <c r="H12" s="7" t="str">
         <f>_xll.qlFraRateHelper(,G12,A12,F12,Permanent,trigger,ObjectOverwrite)</f>
-        <v>obj_008e5#0007</v>
+        <v>obj_00847#0004</v>
       </c>
       <c r="I12" s="16" t="b">
         <v>1</v>
@@ -1664,7 +1725,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="26" t="str">
-        <v>obj_008e5</v>
+        <v>obj_00847</v>
       </c>
       <c r="N12" s="26" t="str">
         <f>_xll.qlRateHelperQuoteName(M12,trigger)</f>
@@ -1683,26 +1744,33 @@
         <v>42704</v>
       </c>
       <c r="R12" s="31">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P12)</f>
-        <v>1.0539530138374976E-3</v>
+        <f>_xll.qlTenorBasisForwardRate($W$13,P12)</f>
+        <v>1.0533779377064345E-3</v>
       </c>
       <c r="S12" s="31">
-        <f t="shared" si="5"/>
-        <v>-1.395301383749748E-5</v>
-      </c>
-      <c r="U12" s="37" t="s">
+        <f t="shared" si="4"/>
+        <v>-1.3377937706434383E-5</v>
+      </c>
+      <c r="T12" s="39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V12" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="V12" s="35">
+      <c r="W12" s="35">
         <v>1.0943948447809099E-4</v>
       </c>
-      <c r="X12" s="35">
+      <c r="X12" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="35">
         <v>1.0943948447809099E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>11M</v>
       </c>
       <c r="B13" s="7">
@@ -1719,16 +1787,16 @@
         <v>59</v>
       </c>
       <c r="F13" s="7" t="str">
+        <f>PROPER(Currency)&amp;FamilyName&amp;$W$4</f>
+        <v>Euribor6M</v>
+      </c>
+      <c r="G13" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>Euribor6M</v>
-      </c>
-      <c r="G13" s="7" t="str">
-        <f t="shared" si="3"/>
         <v>EUR11x17F_Quote</v>
       </c>
       <c r="H13" s="7" t="str">
         <f>_xll.qlFraRateHelper(,G13,A13,F13,Permanent,trigger,ObjectOverwrite)</f>
-        <v>obj_008ed#0007</v>
+        <v>obj_0084b#0004</v>
       </c>
       <c r="I13" s="16" t="b">
         <v>1</v>
@@ -1740,7 +1808,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="26" t="str">
-        <v>obj_008ed</v>
+        <v>obj_0084b</v>
       </c>
       <c r="N13" s="26" t="str">
         <f>_xll.qlRateHelperQuoteName(M13,trigger)</f>
@@ -1752,31 +1820,35 @@
       </c>
       <c r="P13" s="27">
         <f>_xll.qlRateHelperEarliestDate(M13,trigger)</f>
-        <v>42550</v>
+        <v>42551</v>
       </c>
       <c r="Q13" s="27">
         <f>_xll.qlRateHelperLatestDate(M13,trigger)</f>
-        <v>42733</v>
+        <v>42734</v>
       </c>
       <c r="R13" s="31">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P13)</f>
-        <v>1.0998722229245213E-3</v>
+        <f>_xll.qlTenorBasisForwardRate($W$13,P13)</f>
+        <v>1.1009191548252562E-3</v>
       </c>
       <c r="S13" s="31">
-        <f t="shared" si="5"/>
-        <v>1.0127777075478583E-5</v>
-      </c>
-      <c r="U13" s="37" t="s">
+        <f t="shared" si="4"/>
+        <v>9.0808451747436281E-6</v>
+      </c>
+      <c r="T13" s="39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V13" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="V13" s="33" t="str">
-        <f>_xll.qlAbcdTenorBasis(,V5,V6,V7,V8,V9:V12,,trigger)</f>
-        <v>obj_008fb#0018</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W13" s="42" t="str">
+        <f>_xll.qlAbcdTenorBasis(,W5,W6,W7,W8,W9:W12,,trigger)</f>
+        <v>obj_00853#0003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>12M</v>
       </c>
       <c r="B14" s="7">
@@ -1793,16 +1865,16 @@
         <v>59</v>
       </c>
       <c r="F14" s="7" t="str">
+        <f>PROPER(Currency)&amp;FamilyName&amp;$W$4</f>
+        <v>Euribor6M</v>
+      </c>
+      <c r="G14" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>Euribor6M</v>
-      </c>
-      <c r="G14" s="7" t="str">
-        <f t="shared" si="3"/>
         <v>EUR12x18F_Quote</v>
       </c>
       <c r="H14" s="7" t="str">
         <f>_xll.qlFraRateHelper(,G14,A14,F14,Permanent,trigger,ObjectOverwrite)</f>
-        <v>obj_008eb#0007</v>
+        <v>obj_00841#0004</v>
       </c>
       <c r="I14" s="16" t="b">
         <v>1</v>
@@ -1814,43 +1886,51 @@
         <v>1</v>
       </c>
       <c r="M14" s="26" t="str">
-        <v>obj_008eb</v>
+        <v>obj_00873</v>
       </c>
       <c r="N14" s="26" t="str">
         <f>_xll.qlRateHelperQuoteName(M14,trigger)</f>
-        <v>EUR12x18F_Quote</v>
+        <v>EURAB6E18M_Quote</v>
       </c>
       <c r="O14" s="31">
         <f>_xll.qlRateHelperRate(M14,trigger)</f>
-        <v>1.1999999999999999E-3</v>
+        <v>8.8999999999999995E-4</v>
       </c>
       <c r="P14" s="27">
         <f>_xll.qlRateHelperEarliestDate(M14,trigger)</f>
-        <v>42580</v>
+        <v>42215</v>
       </c>
       <c r="Q14" s="27">
         <f>_xll.qlRateHelperLatestDate(M14,trigger)</f>
-        <v>42766</v>
+        <v>42765</v>
       </c>
       <c r="R14" s="31">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P14)</f>
-        <v>1.2283218887702615E-3</v>
+        <f>_xll.qlTenorBasisForwardRate($W$13,P14)</f>
+        <v>6.0045907765632627E-4</v>
       </c>
       <c r="S14" s="31">
-        <f t="shared" si="5"/>
-        <v>-2.8321888770261585E-5</v>
-      </c>
-      <c r="U14" s="37" t="s">
+        <f t="shared" si="4"/>
+        <v>2.8954092234367368E-4</v>
+      </c>
+      <c r="T14" s="39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V14" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="V14" s="33" t="b">
-        <f>_xll.qlTenorBasisCalibrate($V$13,_xll.ohPack(M3:M53),V17,V16,V18,,,trigger)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W14" s="33" t="e">
+        <f>_xll.qlTenorBasisCalibrate($W$13,_xll.ohPack(M3:M57),W17,W16,W18,_xll.ohPack(T3:T57),X9:X12,trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="X14" s="1" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(W14)</f>
+        <v>qlTenorBasisCalibrate - 2nd leg: d2 (July 30th, 2015) &lt;= d1 (July 30th, 2015)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>13M</v>
       </c>
       <c r="B15" s="7">
@@ -1867,16 +1947,16 @@
         <v>59</v>
       </c>
       <c r="F15" s="7" t="str">
+        <f>PROPER(Currency)&amp;FamilyName&amp;$W$4</f>
+        <v>Euribor6M</v>
+      </c>
+      <c r="G15" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>Euribor6M</v>
-      </c>
-      <c r="G15" s="7" t="str">
-        <f t="shared" si="3"/>
         <v>EUR13x19F_Quote</v>
       </c>
       <c r="H15" s="7" t="str">
         <f>_xll.qlFraRateHelper(,G15,A15,F15,Permanent,trigger,ObjectOverwrite)</f>
-        <v>obj_008f1#0007</v>
+        <v>obj_00852#0004</v>
       </c>
       <c r="I15" s="16" t="b">
         <v>1</v>
@@ -1888,37 +1968,41 @@
         <v>1</v>
       </c>
       <c r="M15" s="26" t="str">
-        <v>obj_008f1</v>
+        <v>obj_00841</v>
       </c>
       <c r="N15" s="26" t="str">
         <f>_xll.qlRateHelperQuoteName(M15,trigger)</f>
-        <v>EUR13x19F_Quote</v>
+        <v>EUR12x18F_Quote</v>
       </c>
       <c r="O15" s="31">
         <f>_xll.qlRateHelperRate(M15,trigger)</f>
-        <v>1.2900000000000001E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="P15" s="27">
         <f>_xll.qlRateHelperEarliestDate(M15,trigger)</f>
-        <v>42611</v>
+        <v>42580</v>
       </c>
       <c r="Q15" s="27">
         <f>_xll.qlRateHelperLatestDate(M15,trigger)</f>
-        <v>42794</v>
+        <v>42766</v>
       </c>
       <c r="R15" s="31">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P15)</f>
-        <v>1.3130417838142041E-3</v>
+        <f>_xll.qlTenorBasisForwardRate($W$13,P15)</f>
+        <v>1.2275256292504364E-3</v>
       </c>
       <c r="S15" s="31">
-        <f t="shared" si="5"/>
-        <v>-2.3041783814203983E-5</v>
-      </c>
-      <c r="U15" s="38"/>
-    </row>
-    <row r="16" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>-2.7525629250436511E-5</v>
+      </c>
+      <c r="T15" s="39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V15" s="38"/>
+    </row>
+    <row r="16" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>14M</v>
       </c>
       <c r="B16" s="7">
@@ -1935,16 +2019,16 @@
         <v>59</v>
       </c>
       <c r="F16" s="7" t="str">
+        <f>PROPER(Currency)&amp;FamilyName&amp;$W$4</f>
+        <v>Euribor6M</v>
+      </c>
+      <c r="G16" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>Euribor6M</v>
-      </c>
-      <c r="G16" s="7" t="str">
-        <f t="shared" si="3"/>
         <v>EUR14x20F_Quote</v>
       </c>
       <c r="H16" s="7" t="str">
         <f>_xll.qlFraRateHelper(,G16,A16,F16,Permanent,trigger,ObjectOverwrite)</f>
-        <v>obj_008f0#0007</v>
+        <v>obj_0084c#0004</v>
       </c>
       <c r="I16" s="16" t="b">
         <v>1</v>
@@ -1956,43 +2040,47 @@
         <v>1</v>
       </c>
       <c r="M16" s="26" t="str">
-        <v>obj_008f0</v>
+        <v>obj_00852</v>
       </c>
       <c r="N16" s="26" t="str">
         <f>_xll.qlRateHelperQuoteName(M16,trigger)</f>
-        <v>EUR14x20F_Quote</v>
+        <v>EUR13x19F_Quote</v>
       </c>
       <c r="O16" s="31">
         <f>_xll.qlRateHelperRate(M16,trigger)</f>
-        <v>1.3999999999999998E-3</v>
+        <v>1.2900000000000001E-3</v>
       </c>
       <c r="P16" s="27">
         <f>_xll.qlRateHelperEarliestDate(M16,trigger)</f>
-        <v>42642</v>
+        <v>42612</v>
       </c>
       <c r="Q16" s="27">
         <f>_xll.qlRateHelperLatestDate(M16,trigger)</f>
-        <v>42823</v>
+        <v>42794</v>
       </c>
       <c r="R16" s="31">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P16)</f>
-        <v>1.4282444133764166E-3</v>
+        <f>_xll.qlTenorBasisForwardRate($W$13,P16)</f>
+        <v>1.3133245786274455E-3</v>
       </c>
       <c r="S16" s="31">
-        <f t="shared" si="5"/>
-        <v>-2.8244413376416833E-5</v>
-      </c>
-      <c r="U16" s="37" t="s">
+        <f t="shared" si="4"/>
+        <v>-2.3324578627445351E-5</v>
+      </c>
+      <c r="T16" s="39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V16" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="V16" s="33" t="str">
-        <f>_xll.qlEndCriteria(,100000,30000,0.00000000000001,0.00000000000001,0.00000000000001)</f>
-        <v>obj_0091c#0016</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W16" s="33" t="str">
+        <f>_xll.qlEndCriteria(,100000,30000,0.00000000000001,0.00000000000001,0.00000000000001,,trigger)</f>
+        <v>obj_0087a#0031</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>15M</v>
       </c>
       <c r="B17" s="7">
@@ -2009,16 +2097,16 @@
         <v>59</v>
       </c>
       <c r="F17" s="7" t="str">
+        <f>PROPER(Currency)&amp;FamilyName&amp;$W$4</f>
+        <v>Euribor6M</v>
+      </c>
+      <c r="G17" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>Euribor6M</v>
-      </c>
-      <c r="G17" s="7" t="str">
-        <f t="shared" si="3"/>
         <v>EUR15x21F_Quote</v>
       </c>
       <c r="H17" s="7" t="str">
         <f>_xll.qlFraRateHelper(,G17,A17,F17,Permanent,trigger,ObjectOverwrite)</f>
-        <v>obj_008f2#0007</v>
+        <v>obj_0084d#0004</v>
       </c>
       <c r="I17" s="16" t="b">
         <v>1</v>
@@ -2030,43 +2118,47 @@
         <v>1</v>
       </c>
       <c r="M17" s="26" t="str">
-        <v>obj_008f2</v>
+        <v>obj_0084c</v>
       </c>
       <c r="N17" s="26" t="str">
         <f>_xll.qlRateHelperQuoteName(M17,trigger)</f>
-        <v>EUR15x21F_Quote</v>
+        <v>EUR14x20F_Quote</v>
       </c>
       <c r="O17" s="31">
         <f>_xll.qlRateHelperRate(M17,trigger)</f>
-        <v>1.5199999999999999E-3</v>
+        <v>1.3999999999999998E-3</v>
       </c>
       <c r="P17" s="27">
         <f>_xll.qlRateHelperEarliestDate(M17,trigger)</f>
-        <v>42674</v>
+        <v>42643</v>
       </c>
       <c r="Q17" s="27">
         <f>_xll.qlRateHelperLatestDate(M17,trigger)</f>
-        <v>42853</v>
+        <v>42825</v>
       </c>
       <c r="R17" s="31">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P17)</f>
-        <v>1.5728669039285939E-3</v>
+        <f>_xll.qlTenorBasisForwardRate($W$13,P17)</f>
+        <v>1.4343018962424971E-3</v>
       </c>
       <c r="S17" s="31">
-        <f t="shared" si="5"/>
-        <v>-5.2866903928594023E-5</v>
-      </c>
-      <c r="U17" s="37" t="s">
+        <f t="shared" si="4"/>
+        <v>-3.4301896242497354E-5</v>
+      </c>
+      <c r="T17" s="39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V17" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="V17" s="33" t="str">
-        <f>_xll.qlSimplex(,0)</f>
-        <v>obj_0091b#0022</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W17" s="33" t="str">
+        <f>_xll.qlSimplex(,100,,trigger)</f>
+        <v>obj_0087b#0019</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>16M</v>
       </c>
       <c r="B18" s="7">
@@ -2083,16 +2175,16 @@
         <v>59</v>
       </c>
       <c r="F18" s="7" t="str">
+        <f>PROPER(Currency)&amp;FamilyName&amp;$W$4</f>
+        <v>Euribor6M</v>
+      </c>
+      <c r="G18" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>Euribor6M</v>
-      </c>
-      <c r="G18" s="7" t="str">
-        <f t="shared" si="3"/>
         <v>EUR16x22F_Quote</v>
       </c>
       <c r="H18" s="7" t="str">
         <f>_xll.qlFraRateHelper(,G18,A18,F18,Permanent,trigger,ObjectOverwrite)</f>
-        <v>obj_008e1#0007</v>
+        <v>obj_00844#0004</v>
       </c>
       <c r="I18" s="16" t="b">
         <v>1</v>
@@ -2104,43 +2196,47 @@
         <v>1</v>
       </c>
       <c r="M18" s="26" t="str">
-        <v>obj_008e1</v>
+        <v>obj_0084d</v>
       </c>
       <c r="N18" s="26" t="str">
         <f>_xll.qlRateHelperQuoteName(M18,trigger)</f>
-        <v>EUR16x22F_Quote</v>
+        <v>EUR15x21F_Quote</v>
       </c>
       <c r="O18" s="31">
         <f>_xll.qlRateHelperRate(M18,trigger)</f>
-        <v>1.6299999999999997E-3</v>
+        <v>1.5199999999999999E-3</v>
       </c>
       <c r="P18" s="27">
         <f>_xll.qlRateHelperEarliestDate(M18,trigger)</f>
-        <v>42703</v>
+        <v>42674</v>
       </c>
       <c r="Q18" s="27">
         <f>_xll.qlRateHelperLatestDate(M18,trigger)</f>
-        <v>42884</v>
+        <v>42853</v>
       </c>
       <c r="R18" s="31">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P18)</f>
-        <v>1.7280365301122007E-3</v>
+        <f>_xll.qlTenorBasisForwardRate($W$13,P18)</f>
+        <v>1.5717390022508401E-3</v>
       </c>
       <c r="S18" s="31">
-        <f t="shared" si="5"/>
-        <v>-9.8036530112201011E-5</v>
-      </c>
-      <c r="U18" s="37" t="s">
+        <f t="shared" si="4"/>
+        <v>-5.1739002250840221E-5</v>
+      </c>
+      <c r="T18" s="39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V18" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="V18" s="33" t="str">
-        <f>_xll.qlNoConstraint()</f>
-        <v>obj_0091a#0006</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W18" s="33" t="str">
+        <f>_xll.qlNoConstraint(,,trigger)</f>
+        <v>obj_0087c#0012</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17M</v>
       </c>
       <c r="B19" s="7">
@@ -2157,16 +2253,16 @@
         <v>59</v>
       </c>
       <c r="F19" s="7" t="str">
+        <f>PROPER(Currency)&amp;FamilyName&amp;$W$4</f>
+        <v>Euribor6M</v>
+      </c>
+      <c r="G19" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>Euribor6M</v>
-      </c>
-      <c r="G19" s="7" t="str">
-        <f t="shared" si="3"/>
         <v>EUR17x23F_Quote</v>
       </c>
       <c r="H19" s="7" t="str">
         <f>_xll.qlFraRateHelper(,G19,A19,F19,Permanent,trigger,ObjectOverwrite)</f>
-        <v>obj_008e8#0007</v>
+        <v>obj_00848#0004</v>
       </c>
       <c r="I19" s="16" t="b">
         <v>1</v>
@@ -2178,36 +2274,40 @@
         <v>1</v>
       </c>
       <c r="M19" s="26" t="str">
-        <v>obj_008e8</v>
+        <v>obj_00844</v>
       </c>
       <c r="N19" s="26" t="str">
         <f>_xll.qlRateHelperQuoteName(M19,trigger)</f>
-        <v>EUR17x23F_Quote</v>
+        <v>EUR16x22F_Quote</v>
       </c>
       <c r="O19" s="31">
         <f>_xll.qlRateHelperRate(M19,trigger)</f>
-        <v>1.7699999999999999E-3</v>
+        <v>1.6299999999999997E-3</v>
       </c>
       <c r="P19" s="27">
         <f>_xll.qlRateHelperEarliestDate(M19,trigger)</f>
-        <v>42733</v>
+        <v>42704</v>
       </c>
       <c r="Q19" s="27">
         <f>_xll.qlRateHelperLatestDate(M19,trigger)</f>
-        <v>42915</v>
+        <v>42886</v>
       </c>
       <c r="R19" s="31">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P19)</f>
-        <v>1.8905545267372721E-3</v>
+        <f>_xll.qlTenorBasisForwardRate($W$13,P19)</f>
+        <v>1.7338710885665795E-3</v>
       </c>
       <c r="S19" s="31">
-        <f t="shared" si="5"/>
-        <v>-1.2055452673727222E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>-1.0387108856657981E-4</v>
+      </c>
+      <c r="T19" s="39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>18M</v>
       </c>
       <c r="B20" s="8">
@@ -2224,16 +2324,16 @@
         <v>59</v>
       </c>
       <c r="F20" s="8" t="str">
+        <f>PROPER(Currency)&amp;FamilyName&amp;$W$4</f>
+        <v>Euribor6M</v>
+      </c>
+      <c r="G20" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>Euribor6M</v>
-      </c>
-      <c r="G20" s="8" t="str">
-        <f t="shared" si="3"/>
         <v>EUR18x24F_Quote</v>
       </c>
       <c r="H20" s="8" t="str">
         <f>_xll.qlFraRateHelper(,G20,A20,F20,Permanent,trigger,ObjectOverwrite)</f>
-        <v>obj_008ea#0007</v>
+        <v>obj_00843#0004</v>
       </c>
       <c r="I20" s="17" t="b">
         <v>1</v>
@@ -2245,34 +2345,38 @@
         <v>1</v>
       </c>
       <c r="M20" s="26" t="str">
-        <v>obj_008ea</v>
+        <v>obj_00848</v>
       </c>
       <c r="N20" s="26" t="str">
         <f>_xll.qlRateHelperQuoteName(M20,trigger)</f>
-        <v>EUR18x24F_Quote</v>
+        <v>EUR17x23F_Quote</v>
       </c>
       <c r="O20" s="31">
         <f>_xll.qlRateHelperRate(M20,trigger)</f>
-        <v>1.92E-3</v>
+        <v>1.7699999999999999E-3</v>
       </c>
       <c r="P20" s="27">
         <f>_xll.qlRateHelperEarliestDate(M20,trigger)</f>
-        <v>42765</v>
+        <v>42734</v>
       </c>
       <c r="Q20" s="27">
         <f>_xll.qlRateHelperLatestDate(M20,trigger)</f>
-        <v>42947</v>
+        <v>42916</v>
       </c>
       <c r="R20" s="31">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P20)</f>
-        <v>1.9855484611802339E-3</v>
+        <f>_xll.qlTenorBasisForwardRate($W$13,P20)</f>
+        <v>1.8942119643788099E-3</v>
       </c>
       <c r="S20" s="31">
-        <f t="shared" si="5"/>
-        <v>-6.5548461180233884E-5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>-1.2421196437881004E-4</v>
+      </c>
+      <c r="T20" s="39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
@@ -2296,11 +2400,11 @@
         <v>EURAB6E1Y_Quote</v>
       </c>
       <c r="H21" s="6" t="str">
-        <f>_xll.qlSwapRateHelper2(,G21,2,B21,"Target",C21,D21,E21,$H$1,F21,A21,$V$6,,trigger)</f>
-        <v>obj_008fd#0006</v>
+        <f>_xll.qlSwapRateHelper2(,G21,2,B21,"Target",C21,D21,E21,$H$1,F21,A21,$W$6,,trigger)</f>
+        <v>obj_00865#0003</v>
       </c>
       <c r="I21" s="15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="19">
         <v>10</v>
@@ -2308,35 +2412,39 @@
       <c r="K21" s="19">
         <v>1</v>
       </c>
-      <c r="M21" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N21" s="26" t="e">
+      <c r="M21" s="26" t="str">
+        <v>obj_00843</v>
+      </c>
+      <c r="N21" s="26" t="str">
         <f>_xll.qlRateHelperQuoteName(M21,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O21" s="31" t="e">
+        <v>EUR18x24F_Quote</v>
+      </c>
+      <c r="O21" s="31">
         <f>_xll.qlRateHelperRate(M21,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P21" s="27" t="e">
+        <v>1.92E-3</v>
+      </c>
+      <c r="P21" s="27">
         <f>_xll.qlRateHelperEarliestDate(M21,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q21" s="27" t="e">
+        <v>42765</v>
+      </c>
+      <c r="Q21" s="27">
         <f>_xll.qlRateHelperLatestDate(M21,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R21" s="31" t="e">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P21)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="S21" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42947</v>
+      </c>
+      <c r="R21" s="31">
+        <f>_xll.qlTenorBasisForwardRate($W$13,P21)</f>
+        <v>1.9841560116684955E-3</v>
+      </c>
+      <c r="S21" s="31">
+        <f t="shared" si="4"/>
+        <v>-6.4156011668495489E-5</v>
+      </c>
+      <c r="T21" s="39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>15</v>
       </c>
@@ -2360,11 +2468,11 @@
         <v>EURAB6E15M_Quote</v>
       </c>
       <c r="H22" s="11" t="str">
-        <f>_xll.qlSwapRateHelper2(,G22,2,B22,"Target",C22,D22,E22,$H$1,F22,A22,$V$6,,trigger)</f>
-        <v>obj_0090e#0006</v>
+        <f>_xll.qlSwapRateHelper2(,G22,2,B22,"Target",C22,D22,E22,$H$1,F22,A22,$W$6,,trigger)</f>
+        <v>obj_00869#0003</v>
       </c>
       <c r="I22" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="19">
         <v>10</v>
@@ -2372,35 +2480,39 @@
       <c r="K22" s="19">
         <v>1</v>
       </c>
-      <c r="M22" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N22" s="26" t="e">
+      <c r="M22" s="26" t="str">
+        <v>obj_0086e</v>
+      </c>
+      <c r="N22" s="26" t="str">
         <f>_xll.qlRateHelperQuoteName(M22,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O22" s="31" t="e">
+        <v>EURAB6E3Y_Quote</v>
+      </c>
+      <c r="O22" s="31">
         <f>_xll.qlRateHelperRate(M22,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P22" s="27" t="e">
+        <v>1.9500000000000001E-3</v>
+      </c>
+      <c r="P22" s="27">
         <f>_xll.qlRateHelperEarliestDate(M22,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q22" s="27" t="e">
+        <v>42215</v>
+      </c>
+      <c r="Q22" s="27">
         <f>_xll.qlRateHelperLatestDate(M22,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R22" s="31" t="e">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P22)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="S22" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>43311</v>
+      </c>
+      <c r="R22" s="31">
+        <f>_xll.qlTenorBasisForwardRate($W$13,P22)</f>
+        <v>6.0045907765632627E-4</v>
+      </c>
+      <c r="S22" s="31">
+        <f t="shared" si="4"/>
+        <v>1.3495409223436739E-3</v>
+      </c>
+      <c r="T22" s="39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>15</v>
       </c>
@@ -2424,11 +2536,11 @@
         <v>EURAB6E18M_Quote</v>
       </c>
       <c r="H23" s="11" t="str">
-        <f>_xll.qlSwapRateHelper2(,G23,2,B23,"Target",C23,D23,E23,$H$1,F23,A23,$V$6,,trigger)</f>
-        <v>obj_008fe#0006</v>
+        <f>_xll.qlSwapRateHelper2(,G23,2,B23,"Target",C23,D23,E23,$H$1,F23,A23,$W$6,,trigger)</f>
+        <v>obj_00873#0003</v>
       </c>
       <c r="I23" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="19">
         <v>10</v>
@@ -2436,35 +2548,39 @@
       <c r="K23" s="19">
         <v>1</v>
       </c>
-      <c r="M23" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N23" s="26" t="e">
+      <c r="M23" s="26" t="str">
+        <v>obj_00862</v>
+      </c>
+      <c r="N23" s="26" t="str">
         <f>_xll.qlRateHelperQuoteName(M23,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O23" s="31" t="e">
+        <v>EURAB6E4Y_Quote</v>
+      </c>
+      <c r="O23" s="31">
         <f>_xll.qlRateHelperRate(M23,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P23" s="27" t="e">
+        <v>2.9800000000000004E-3</v>
+      </c>
+      <c r="P23" s="27">
         <f>_xll.qlRateHelperEarliestDate(M23,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q23" s="27" t="e">
+        <v>42215</v>
+      </c>
+      <c r="Q23" s="27">
         <f>_xll.qlRateHelperLatestDate(M23,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R23" s="31" t="e">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P23)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="S23" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>43676</v>
+      </c>
+      <c r="R23" s="31">
+        <f>_xll.qlTenorBasisForwardRate($W$13,P23)</f>
+        <v>6.0045907765632627E-4</v>
+      </c>
+      <c r="S23" s="31">
+        <f t="shared" si="4"/>
+        <v>2.379540922343674E-3</v>
+      </c>
+      <c r="T23" s="39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>15</v>
       </c>
@@ -2488,11 +2604,11 @@
         <v>EURAB6E21M_Quote</v>
       </c>
       <c r="H24" s="11" t="str">
-        <f>_xll.qlSwapRateHelper2(,G24,2,B24,"Target",C24,D24,E24,$H$1,F24,A24,$V$6,,trigger)</f>
-        <v>obj_00907#0006</v>
+        <f>_xll.qlSwapRateHelper2(,G24,2,B24,"Target",C24,D24,E24,$H$1,F24,A24,$W$6,,trigger)</f>
+        <v>obj_00877#0003</v>
       </c>
       <c r="I24" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="19">
         <v>10</v>
@@ -2500,35 +2616,39 @@
       <c r="K24" s="19">
         <v>1</v>
       </c>
-      <c r="M24" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N24" s="26" t="e">
+      <c r="M24" s="26" t="str">
+        <v>obj_00875</v>
+      </c>
+      <c r="N24" s="26" t="str">
         <f>_xll.qlRateHelperQuoteName(M24,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O24" s="31" t="e">
+        <v>EURAB6E5Y_Quote</v>
+      </c>
+      <c r="O24" s="31">
         <f>_xll.qlRateHelperRate(M24,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P24" s="27" t="e">
+        <v>4.1700000000000001E-3</v>
+      </c>
+      <c r="P24" s="27">
         <f>_xll.qlRateHelperEarliestDate(M24,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q24" s="27" t="e">
+        <v>42215</v>
+      </c>
+      <c r="Q24" s="27">
         <f>_xll.qlRateHelperLatestDate(M24,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R24" s="31" t="e">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P24)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="S24" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44042</v>
+      </c>
+      <c r="R24" s="31">
+        <f>_xll.qlTenorBasisForwardRate($W$13,P24)</f>
+        <v>6.0045907765632627E-4</v>
+      </c>
+      <c r="S24" s="31">
+        <f t="shared" si="4"/>
+        <v>3.569540922343674E-3</v>
+      </c>
+      <c r="T24" s="39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>15</v>
       </c>
@@ -2552,11 +2672,11 @@
         <v>EURAB6E2Y_Quote</v>
       </c>
       <c r="H25" s="11" t="str">
-        <f>_xll.qlSwapRateHelper2(,G25,2,B25,"Target",C25,D25,E25,$H$1,F25,A25,$V$6,,trigger)</f>
-        <v>obj_008f9#0006</v>
+        <f>_xll.qlSwapRateHelper2(,G25,2,B25,"Target",C25,D25,E25,$H$1,F25,A25,$W$6,,trigger)</f>
+        <v>obj_0085d#0003</v>
       </c>
       <c r="I25" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="19">
         <v>10</v>
@@ -2564,35 +2684,39 @@
       <c r="K25" s="19">
         <v>1</v>
       </c>
-      <c r="M25" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N25" s="26" t="e">
+      <c r="M25" s="26" t="str">
+        <v>obj_00864</v>
+      </c>
+      <c r="N25" s="26" t="str">
         <f>_xll.qlRateHelperQuoteName(M25,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O25" s="31" t="e">
+        <v>EURAB6E6Y_Quote</v>
+      </c>
+      <c r="O25" s="31">
         <f>_xll.qlRateHelperRate(M25,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P25" s="27" t="e">
+        <v>5.45E-3</v>
+      </c>
+      <c r="P25" s="27">
         <f>_xll.qlRateHelperEarliestDate(M25,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q25" s="27" t="e">
+        <v>42215</v>
+      </c>
+      <c r="Q25" s="27">
         <f>_xll.qlRateHelperLatestDate(M25,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R25" s="31" t="e">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P25)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="S25" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44407</v>
+      </c>
+      <c r="R25" s="31">
+        <f>_xll.qlTenorBasisForwardRate($W$13,P25)</f>
+        <v>6.0045907765632627E-4</v>
+      </c>
+      <c r="S25" s="31">
+        <f t="shared" si="4"/>
+        <v>4.8495409223436739E-3</v>
+      </c>
+      <c r="T25" s="39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>15</v>
       </c>
@@ -2616,11 +2740,11 @@
         <v>EURAB6E3Y_Quote</v>
       </c>
       <c r="H26" s="11" t="str">
-        <f>_xll.qlSwapRateHelper2(,G26,2,B26,"Target",C26,D26,E26,$H$1,F26,A26,$V$6,,trigger)</f>
-        <v>obj_00906#0006</v>
+        <f>_xll.qlSwapRateHelper2(,G26,2,B26,"Target",C26,D26,E26,$H$1,F26,A26,$W$6,,trigger)</f>
+        <v>obj_0086e#0003</v>
       </c>
       <c r="I26" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="19">
         <v>10</v>
@@ -2628,35 +2752,39 @@
       <c r="K26" s="19">
         <v>1</v>
       </c>
-      <c r="M26" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N26" s="26" t="e">
+      <c r="M26" s="26" t="str">
+        <v>obj_0085c</v>
+      </c>
+      <c r="N26" s="26" t="str">
         <f>_xll.qlRateHelperQuoteName(M26,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O26" s="31" t="e">
+        <v>EURAB6E7Y_Quote</v>
+      </c>
+      <c r="O26" s="31">
         <f>_xll.qlRateHelperRate(M26,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P26" s="27" t="e">
+        <v>6.7300000000000007E-3</v>
+      </c>
+      <c r="P26" s="27">
         <f>_xll.qlRateHelperEarliestDate(M26,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q26" s="27" t="e">
+        <v>42215</v>
+      </c>
+      <c r="Q26" s="27">
         <f>_xll.qlRateHelperLatestDate(M26,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R26" s="31" t="e">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P26)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="S26" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44771</v>
+      </c>
+      <c r="R26" s="31">
+        <f>_xll.qlTenorBasisForwardRate($W$13,P26)</f>
+        <v>6.0045907765632627E-4</v>
+      </c>
+      <c r="S26" s="31">
+        <f t="shared" si="4"/>
+        <v>6.1295409223436747E-3</v>
+      </c>
+      <c r="T26" s="39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>15</v>
       </c>
@@ -2680,11 +2808,11 @@
         <v>EURAB6E4Y_Quote</v>
       </c>
       <c r="H27" s="11" t="str">
-        <f>_xll.qlSwapRateHelper2(,G27,2,B27,"Target",C27,D27,E27,$H$1,F27,A27,$V$6,,trigger)</f>
-        <v>obj_00912#0006</v>
+        <f>_xll.qlSwapRateHelper2(,G27,2,B27,"Target",C27,D27,E27,$H$1,F27,A27,$W$6,,trigger)</f>
+        <v>obj_00862#0003</v>
       </c>
       <c r="I27" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" s="19">
         <v>10</v>
@@ -2692,35 +2820,39 @@
       <c r="K27" s="19">
         <v>1</v>
       </c>
-      <c r="M27" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N27" s="26" t="e">
+      <c r="M27" s="26" t="str">
+        <v>obj_00863</v>
+      </c>
+      <c r="N27" s="26" t="str">
         <f>_xll.qlRateHelperQuoteName(M27,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O27" s="31" t="e">
+        <v>EURAB6E8Y_Quote</v>
+      </c>
+      <c r="O27" s="31">
         <f>_xll.qlRateHelperRate(M27,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P27" s="27" t="e">
+        <v>7.9099999999999986E-3</v>
+      </c>
+      <c r="P27" s="27">
         <f>_xll.qlRateHelperEarliestDate(M27,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q27" s="27" t="e">
+        <v>42215</v>
+      </c>
+      <c r="Q27" s="27">
         <f>_xll.qlRateHelperLatestDate(M27,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R27" s="31" t="e">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P27)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="S27" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45138</v>
+      </c>
+      <c r="R27" s="31">
+        <f>_xll.qlTenorBasisForwardRate($W$13,P27)</f>
+        <v>6.0045907765632627E-4</v>
+      </c>
+      <c r="S27" s="31">
+        <f t="shared" si="4"/>
+        <v>7.3095409223436726E-3</v>
+      </c>
+      <c r="T27" s="39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>15</v>
       </c>
@@ -2744,11 +2876,11 @@
         <v>EURAB6E5Y_Quote</v>
       </c>
       <c r="H28" s="11" t="str">
-        <f>_xll.qlSwapRateHelper2(,G28,2,B28,"Target",C28,D28,E28,$H$1,F28,A28,$V$6,,trigger)</f>
-        <v>obj_00919#0006</v>
+        <f>_xll.qlSwapRateHelper2(,G28,2,B28,"Target",C28,D28,E28,$H$1,F28,A28,$W$6,,trigger)</f>
+        <v>obj_00875#0003</v>
       </c>
       <c r="I28" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="19">
         <v>10</v>
@@ -2756,35 +2888,39 @@
       <c r="K28" s="19">
         <v>1</v>
       </c>
-      <c r="M28" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N28" s="26" t="e">
+      <c r="M28" s="26" t="str">
+        <v>obj_0086f</v>
+      </c>
+      <c r="N28" s="26" t="str">
         <f>_xll.qlRateHelperQuoteName(M28,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O28" s="31" t="e">
+        <v>EURAB6E9Y_Quote</v>
+      </c>
+      <c r="O28" s="31">
         <f>_xll.qlRateHelperRate(M28,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P28" s="27" t="e">
+        <v>8.9499999999999996E-3</v>
+      </c>
+      <c r="P28" s="27">
         <f>_xll.qlRateHelperEarliestDate(M28,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q28" s="27" t="e">
+        <v>42215</v>
+      </c>
+      <c r="Q28" s="27">
         <f>_xll.qlRateHelperLatestDate(M28,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R28" s="31" t="e">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P28)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="S28" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45503</v>
+      </c>
+      <c r="R28" s="31">
+        <f>_xll.qlTenorBasisForwardRate($W$13,P28)</f>
+        <v>6.0045907765632627E-4</v>
+      </c>
+      <c r="S28" s="31">
+        <f t="shared" si="4"/>
+        <v>8.3495409223436727E-3</v>
+      </c>
+      <c r="T28" s="39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>15</v>
       </c>
@@ -2808,11 +2944,11 @@
         <v>EURAB6E6Y_Quote</v>
       </c>
       <c r="H29" s="11" t="str">
-        <f>_xll.qlSwapRateHelper2(,G29,2,B29,"Target",C29,D29,E29,$H$1,F29,A29,$V$6,,trigger)</f>
-        <v>obj_00916#0006</v>
+        <f>_xll.qlSwapRateHelper2(,G29,2,B29,"Target",C29,D29,E29,$H$1,F29,A29,$W$6,,trigger)</f>
+        <v>obj_00864#0003</v>
       </c>
       <c r="I29" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" s="19">
         <v>10</v>
@@ -2820,35 +2956,39 @@
       <c r="K29" s="19">
         <v>1</v>
       </c>
-      <c r="M29" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N29" s="26" t="e">
+      <c r="M29" s="26" t="str">
+        <v>obj_00878</v>
+      </c>
+      <c r="N29" s="26" t="str">
         <f>_xll.qlRateHelperQuoteName(M29,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O29" s="31" t="e">
+        <v>EURAB6E10Y_Quote</v>
+      </c>
+      <c r="O29" s="31">
         <f>_xll.qlRateHelperRate(M29,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P29" s="27" t="e">
+        <v>9.8200000000000006E-3</v>
+      </c>
+      <c r="P29" s="27">
         <f>_xll.qlRateHelperEarliestDate(M29,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q29" s="27" t="e">
+        <v>42215</v>
+      </c>
+      <c r="Q29" s="27">
         <f>_xll.qlRateHelperLatestDate(M29,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R29" s="31" t="e">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P29)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="S29" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45868</v>
+      </c>
+      <c r="R29" s="31">
+        <f>_xll.qlTenorBasisForwardRate($W$13,P29)</f>
+        <v>6.0045907765632627E-4</v>
+      </c>
+      <c r="S29" s="31">
+        <f t="shared" si="4"/>
+        <v>9.2195409223436737E-3</v>
+      </c>
+      <c r="T29" s="39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>15</v>
       </c>
@@ -2872,11 +3012,11 @@
         <v>EURAB6E7Y_Quote</v>
       </c>
       <c r="H30" s="11" t="str">
-        <f>_xll.qlSwapRateHelper2(,G30,2,B30,"Target",C30,D30,E30,$H$1,F30,A30,$V$6,,trigger)</f>
-        <v>obj_00918#0006</v>
+        <f>_xll.qlSwapRateHelper2(,G30,2,B30,"Target",C30,D30,E30,$H$1,F30,A30,$W$6,,trigger)</f>
+        <v>obj_0085c#0003</v>
       </c>
       <c r="I30" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="19">
         <v>10</v>
@@ -2884,35 +3024,39 @@
       <c r="K30" s="19">
         <v>1</v>
       </c>
-      <c r="M30" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N30" s="26" t="e">
+      <c r="M30" s="26" t="str">
+        <v>obj_00871</v>
+      </c>
+      <c r="N30" s="26" t="str">
         <f>_xll.qlRateHelperQuoteName(M30,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O30" s="31" t="e">
+        <v>EURAB6E11Y_Quote</v>
+      </c>
+      <c r="O30" s="31">
         <f>_xll.qlRateHelperRate(M30,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P30" s="27" t="e">
+        <v>1.057E-2</v>
+      </c>
+      <c r="P30" s="27">
         <f>_xll.qlRateHelperEarliestDate(M30,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q30" s="27" t="e">
+        <v>42215</v>
+      </c>
+      <c r="Q30" s="27">
         <f>_xll.qlRateHelperLatestDate(M30,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R30" s="31" t="e">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P30)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="S30" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>46233</v>
+      </c>
+      <c r="R30" s="31">
+        <f>_xll.qlTenorBasisForwardRate($W$13,P30)</f>
+        <v>6.0045907765632627E-4</v>
+      </c>
+      <c r="S30" s="31">
+        <f t="shared" si="4"/>
+        <v>9.9695409223436726E-3</v>
+      </c>
+      <c r="T30" s="39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>15</v>
       </c>
@@ -2936,11 +3080,11 @@
         <v>EURAB6E8Y_Quote</v>
       </c>
       <c r="H31" s="11" t="str">
-        <f>_xll.qlSwapRateHelper2(,G31,2,B31,"Target",C31,D31,E31,$H$1,F31,A31,$V$6,,trigger)</f>
-        <v>obj_00900#0006</v>
+        <f>_xll.qlSwapRateHelper2(,G31,2,B31,"Target",C31,D31,E31,$H$1,F31,A31,$W$6,,trigger)</f>
+        <v>obj_00863#0003</v>
       </c>
       <c r="I31" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" s="19">
         <v>10</v>
@@ -2948,35 +3092,39 @@
       <c r="K31" s="19">
         <v>1</v>
       </c>
-      <c r="M31" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N31" s="26" t="e">
+      <c r="M31" s="26" t="str">
+        <v>obj_00859</v>
+      </c>
+      <c r="N31" s="26" t="str">
         <f>_xll.qlRateHelperQuoteName(M31,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O31" s="31" t="e">
+        <v>EURAB6E12Y_Quote</v>
+      </c>
+      <c r="O31" s="31">
         <f>_xll.qlRateHelperRate(M31,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P31" s="27" t="e">
+        <v>1.1240000000000002E-2</v>
+      </c>
+      <c r="P31" s="27">
         <f>_xll.qlRateHelperEarliestDate(M31,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q31" s="27" t="e">
+        <v>42215</v>
+      </c>
+      <c r="Q31" s="27">
         <f>_xll.qlRateHelperLatestDate(M31,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R31" s="31" t="e">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P31)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="S31" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>46598</v>
+      </c>
+      <c r="R31" s="31">
+        <f>_xll.qlTenorBasisForwardRate($W$13,P31)</f>
+        <v>6.0045907765632627E-4</v>
+      </c>
+      <c r="S31" s="31">
+        <f t="shared" si="4"/>
+        <v>1.0639540922343675E-2</v>
+      </c>
+      <c r="T31" s="39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>15</v>
       </c>
@@ -3000,11 +3148,11 @@
         <v>EURAB6E9Y_Quote</v>
       </c>
       <c r="H32" s="11" t="str">
-        <f>_xll.qlSwapRateHelper2(,G32,2,B32,"Target",C32,D32,E32,$H$1,F32,A32,$V$6,,trigger)</f>
-        <v>obj_00914#0006</v>
+        <f>_xll.qlSwapRateHelper2(,G32,2,B32,"Target",C32,D32,E32,$H$1,F32,A32,$W$6,,trigger)</f>
+        <v>obj_0086f#0003</v>
       </c>
       <c r="I32" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" s="19">
         <v>10</v>
@@ -3012,35 +3160,39 @@
       <c r="K32" s="19">
         <v>1</v>
       </c>
-      <c r="M32" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N32" s="26" t="e">
+      <c r="M32" s="26" t="str">
+        <v>obj_00856</v>
+      </c>
+      <c r="N32" s="26" t="str">
         <f>_xll.qlRateHelperQuoteName(M32,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O32" s="31" t="e">
+        <v>EURAB6E13Y_Quote</v>
+      </c>
+      <c r="O32" s="31">
         <f>_xll.qlRateHelperRate(M32,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P32" s="27" t="e">
+        <v>1.1779999999999999E-2</v>
+      </c>
+      <c r="P32" s="27">
         <f>_xll.qlRateHelperEarliestDate(M32,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q32" s="27" t="e">
+        <v>42215</v>
+      </c>
+      <c r="Q32" s="27">
         <f>_xll.qlRateHelperLatestDate(M32,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R32" s="31" t="e">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P32)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="S32" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>46965</v>
+      </c>
+      <c r="R32" s="31">
+        <f>_xll.qlTenorBasisForwardRate($W$13,P32)</f>
+        <v>6.0045907765632627E-4</v>
+      </c>
+      <c r="S32" s="31">
+        <f t="shared" si="4"/>
+        <v>1.1179540922343672E-2</v>
+      </c>
+      <c r="T32" s="39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>15</v>
       </c>
@@ -3064,11 +3216,11 @@
         <v>EURAB6E10Y_Quote</v>
       </c>
       <c r="H33" s="11" t="str">
-        <f>_xll.qlSwapRateHelper2(,G33,2,B33,"Target",C33,D33,E33,$H$1,F33,A33,$V$6,,trigger)</f>
-        <v>obj_008f5#0006</v>
+        <f>_xll.qlSwapRateHelper2(,G33,2,B33,"Target",C33,D33,E33,$H$1,F33,A33,$W$6,,trigger)</f>
+        <v>obj_00878#0003</v>
       </c>
       <c r="I33" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" s="19">
         <v>10</v>
@@ -3076,35 +3228,39 @@
       <c r="K33" s="19">
         <v>1</v>
       </c>
-      <c r="M33" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N33" s="26" t="e">
+      <c r="M33" s="26" t="str">
+        <v>obj_0086c</v>
+      </c>
+      <c r="N33" s="26" t="str">
         <f>_xll.qlRateHelperQuoteName(M33,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O33" s="31" t="e">
+        <v>EURAB6E14Y_Quote</v>
+      </c>
+      <c r="O33" s="31">
         <f>_xll.qlRateHelperRate(M33,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P33" s="27" t="e">
+        <v>1.225E-2</v>
+      </c>
+      <c r="P33" s="27">
         <f>_xll.qlRateHelperEarliestDate(M33,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q33" s="27" t="e">
+        <v>42215</v>
+      </c>
+      <c r="Q33" s="27">
         <f>_xll.qlRateHelperLatestDate(M33,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R33" s="31" t="e">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P33)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="S33" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+        <v>47329</v>
+      </c>
+      <c r="R33" s="31">
+        <f>_xll.qlTenorBasisForwardRate($W$13,P33)</f>
+        <v>6.0045907765632627E-4</v>
+      </c>
+      <c r="S33" s="31">
+        <f t="shared" si="4"/>
+        <v>1.1649540922343674E-2</v>
+      </c>
+      <c r="T33" s="39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>15</v>
       </c>
@@ -3128,11 +3284,11 @@
         <v>EURAB6E11Y_Quote</v>
       </c>
       <c r="H34" s="11" t="str">
-        <f>_xll.qlSwapRateHelper2(,G34,2,B34,"Target",C34,D34,E34,$H$1,F34,A34,$V$6,,trigger)</f>
-        <v>obj_0090b#0006</v>
+        <f>_xll.qlSwapRateHelper2(,G34,2,B34,"Target",C34,D34,E34,$H$1,F34,A34,$W$6,,trigger)</f>
+        <v>obj_00871#0003</v>
       </c>
       <c r="I34" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" s="19">
         <v>10</v>
@@ -3140,35 +3296,39 @@
       <c r="K34" s="19">
         <v>1</v>
       </c>
-      <c r="M34" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N34" s="26" t="e">
+      <c r="M34" s="26" t="str">
+        <v>obj_0085a</v>
+      </c>
+      <c r="N34" s="26" t="str">
         <f>_xll.qlRateHelperQuoteName(M34,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O34" s="31" t="e">
+        <v>EURAB6E15Y_Quote</v>
+      </c>
+      <c r="O34" s="31">
         <f>_xll.qlRateHelperRate(M34,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P34" s="27" t="e">
+        <v>1.2659999999999999E-2</v>
+      </c>
+      <c r="P34" s="27">
         <f>_xll.qlRateHelperEarliestDate(M34,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q34" s="27" t="e">
+        <v>42215</v>
+      </c>
+      <c r="Q34" s="27">
         <f>_xll.qlRateHelperLatestDate(M34,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R34" s="31" t="e">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P34)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="S34" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+        <v>47694</v>
+      </c>
+      <c r="R34" s="31">
+        <f>_xll.qlTenorBasisForwardRate($W$13,P34)</f>
+        <v>6.0045907765632627E-4</v>
+      </c>
+      <c r="S34" s="31">
+        <f t="shared" si="4"/>
+        <v>1.2059540922343672E-2</v>
+      </c>
+      <c r="T34" s="39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>15</v>
       </c>
@@ -3192,11 +3352,11 @@
         <v>EURAB6E12Y_Quote</v>
       </c>
       <c r="H35" s="11" t="str">
-        <f>_xll.qlSwapRateHelper2(,G35,2,B35,"Target",C35,D35,E35,$H$1,F35,A35,$V$6,,trigger)</f>
-        <v>obj_008fc#0006</v>
+        <f>_xll.qlSwapRateHelper2(,G35,2,B35,"Target",C35,D35,E35,$H$1,F35,A35,$W$6,,trigger)</f>
+        <v>obj_00859#0003</v>
       </c>
       <c r="I35" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" s="19">
         <v>10</v>
@@ -3204,35 +3364,39 @@
       <c r="K35" s="19">
         <v>1</v>
       </c>
-      <c r="M35" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N35" s="26" t="e">
+      <c r="M35" s="26" t="str">
+        <v>obj_00874</v>
+      </c>
+      <c r="N35" s="26" t="str">
         <f>_xll.qlRateHelperQuoteName(M35,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O35" s="31" t="e">
+        <v>EURAB6E16Y_Quote</v>
+      </c>
+      <c r="O35" s="31">
         <f>_xll.qlRateHelperRate(M35,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P35" s="27" t="e">
+        <v>1.299E-2</v>
+      </c>
+      <c r="P35" s="27">
         <f>_xll.qlRateHelperEarliestDate(M35,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q35" s="27" t="e">
+        <v>42215</v>
+      </c>
+      <c r="Q35" s="27">
         <f>_xll.qlRateHelperLatestDate(M35,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R35" s="31" t="e">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P35)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="S35" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+        <v>48059</v>
+      </c>
+      <c r="R35" s="31">
+        <f>_xll.qlTenorBasisForwardRate($W$13,P35)</f>
+        <v>6.0045907765632627E-4</v>
+      </c>
+      <c r="S35" s="31">
+        <f t="shared" si="4"/>
+        <v>1.2389540922343673E-2</v>
+      </c>
+      <c r="T35" s="39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>15</v>
       </c>
@@ -3256,11 +3420,11 @@
         <v>EURAB6E13Y_Quote</v>
       </c>
       <c r="H36" s="11" t="str">
-        <f>_xll.qlSwapRateHelper2(,G36,2,B36,"Target",C36,D36,E36,$H$1,F36,A36,$V$6,,trigger)</f>
-        <v>obj_008f6#0006</v>
+        <f>_xll.qlSwapRateHelper2(,G36,2,B36,"Target",C36,D36,E36,$H$1,F36,A36,$W$6,,trigger)</f>
+        <v>obj_00856#0003</v>
       </c>
       <c r="I36" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" s="19">
         <v>10</v>
@@ -3268,35 +3432,39 @@
       <c r="K36" s="19">
         <v>1</v>
       </c>
-      <c r="M36" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N36" s="26" t="e">
+      <c r="M36" s="26" t="str">
+        <v>obj_00879</v>
+      </c>
+      <c r="N36" s="26" t="str">
         <f>_xll.qlRateHelperQuoteName(M36,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O36" s="31" t="e">
+        <v>EURAB6E17Y_Quote</v>
+      </c>
+      <c r="O36" s="31">
         <f>_xll.qlRateHelperRate(M36,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P36" s="27" t="e">
+        <v>1.3269999999999999E-2</v>
+      </c>
+      <c r="P36" s="27">
         <f>_xll.qlRateHelperEarliestDate(M36,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q36" s="27" t="e">
+        <v>42215</v>
+      </c>
+      <c r="Q36" s="27">
         <f>_xll.qlRateHelperLatestDate(M36,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R36" s="31" t="e">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P36)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="S36" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+        <v>48425</v>
+      </c>
+      <c r="R36" s="31">
+        <f>_xll.qlTenorBasisForwardRate($W$13,P36)</f>
+        <v>6.0045907765632627E-4</v>
+      </c>
+      <c r="S36" s="31">
+        <f t="shared" si="4"/>
+        <v>1.2669540922343672E-2</v>
+      </c>
+      <c r="T36" s="39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>15</v>
       </c>
@@ -3320,11 +3488,11 @@
         <v>EURAB6E14Y_Quote</v>
       </c>
       <c r="H37" s="11" t="str">
-        <f>_xll.qlSwapRateHelper2(,G37,2,B37,"Target",C37,D37,E37,$H$1,F37,A37,$V$6,,trigger)</f>
-        <v>obj_00903#0006</v>
+        <f>_xll.qlSwapRateHelper2(,G37,2,B37,"Target",C37,D37,E37,$H$1,F37,A37,$W$6,,trigger)</f>
+        <v>obj_0086c#0003</v>
       </c>
       <c r="I37" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" s="19">
         <v>10</v>
@@ -3332,35 +3500,39 @@
       <c r="K37" s="19">
         <v>1</v>
       </c>
-      <c r="M37" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N37" s="26" t="e">
+      <c r="M37" s="26" t="str">
+        <v>obj_0086a</v>
+      </c>
+      <c r="N37" s="26" t="str">
         <f>_xll.qlRateHelperQuoteName(M37,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O37" s="31" t="e">
+        <v>EURAB6E18Y_Quote</v>
+      </c>
+      <c r="O37" s="31">
         <f>_xll.qlRateHelperRate(M37,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P37" s="27" t="e">
+        <v>1.349E-2</v>
+      </c>
+      <c r="P37" s="27">
         <f>_xll.qlRateHelperEarliestDate(M37,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q37" s="27" t="e">
+        <v>42215</v>
+      </c>
+      <c r="Q37" s="27">
         <f>_xll.qlRateHelperLatestDate(M37,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R37" s="31" t="e">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P37)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="S37" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+        <v>48789</v>
+      </c>
+      <c r="R37" s="31">
+        <f>_xll.qlTenorBasisForwardRate($W$13,P37)</f>
+        <v>6.0045907765632627E-4</v>
+      </c>
+      <c r="S37" s="31">
+        <f t="shared" si="4"/>
+        <v>1.2889540922343673E-2</v>
+      </c>
+      <c r="T37" s="39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>15</v>
       </c>
@@ -3384,11 +3556,11 @@
         <v>EURAB6E15Y_Quote</v>
       </c>
       <c r="H38" s="11" t="str">
-        <f>_xll.qlSwapRateHelper2(,G38,2,B38,"Target",C38,D38,E38,$H$1,F38,A38,$V$6,,trigger)</f>
-        <v>obj_00915#0006</v>
+        <f>_xll.qlSwapRateHelper2(,G38,2,B38,"Target",C38,D38,E38,$H$1,F38,A38,$W$6,,trigger)</f>
+        <v>obj_0085a#0003</v>
       </c>
       <c r="I38" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" s="19">
         <v>10</v>
@@ -3396,35 +3568,39 @@
       <c r="K38" s="19">
         <v>1</v>
       </c>
-      <c r="M38" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N38" s="26" t="e">
+      <c r="M38" s="26" t="str">
+        <v>obj_00876</v>
+      </c>
+      <c r="N38" s="26" t="str">
         <f>_xll.qlRateHelperQuoteName(M38,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O38" s="31" t="e">
+        <v>EURAB6E19Y_Quote</v>
+      </c>
+      <c r="O38" s="31">
         <f>_xll.qlRateHelperRate(M38,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P38" s="27" t="e">
+        <v>1.367E-2</v>
+      </c>
+      <c r="P38" s="27">
         <f>_xll.qlRateHelperEarliestDate(M38,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q38" s="27" t="e">
+        <v>42215</v>
+      </c>
+      <c r="Q38" s="27">
         <f>_xll.qlRateHelperLatestDate(M38,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R38" s="31" t="e">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P38)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="S38" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+        <v>49156</v>
+      </c>
+      <c r="R38" s="31">
+        <f>_xll.qlTenorBasisForwardRate($W$13,P38)</f>
+        <v>6.0045907765632627E-4</v>
+      </c>
+      <c r="S38" s="31">
+        <f t="shared" si="4"/>
+        <v>1.3069540922343673E-2</v>
+      </c>
+      <c r="T38" s="39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>15</v>
       </c>
@@ -3448,11 +3624,11 @@
         <v>EURAB6E16Y_Quote</v>
       </c>
       <c r="H39" s="11" t="str">
-        <f>_xll.qlSwapRateHelper2(,G39,2,B39,"Target",C39,D39,E39,$H$1,F39,A39,$V$6,,trigger)</f>
-        <v>obj_0090c#0006</v>
+        <f>_xll.qlSwapRateHelper2(,G39,2,B39,"Target",C39,D39,E39,$H$1,F39,A39,$W$6,,trigger)</f>
+        <v>obj_00874#0003</v>
       </c>
       <c r="I39" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" s="19">
         <v>10</v>
@@ -3460,35 +3636,39 @@
       <c r="K39" s="19">
         <v>1</v>
       </c>
-      <c r="M39" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N39" s="26" t="e">
+      <c r="M39" s="26" t="str">
+        <v>obj_0085b</v>
+      </c>
+      <c r="N39" s="26" t="str">
         <f>_xll.qlRateHelperQuoteName(M39,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O39" s="31" t="e">
+        <v>EURAB6E20Y_Quote</v>
+      </c>
+      <c r="O39" s="31">
         <f>_xll.qlRateHelperRate(M39,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P39" s="27" t="e">
+        <v>1.3809999999999999E-2</v>
+      </c>
+      <c r="P39" s="27">
         <f>_xll.qlRateHelperEarliestDate(M39,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q39" s="27" t="e">
+        <v>42215</v>
+      </c>
+      <c r="Q39" s="27">
         <f>_xll.qlRateHelperLatestDate(M39,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R39" s="31" t="e">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P39)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="S39" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+        <v>49520</v>
+      </c>
+      <c r="R39" s="31">
+        <f>_xll.qlTenorBasisForwardRate($W$13,P39)</f>
+        <v>6.0045907765632627E-4</v>
+      </c>
+      <c r="S39" s="31">
+        <f t="shared" si="4"/>
+        <v>1.3209540922343672E-2</v>
+      </c>
+      <c r="T39" s="39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>15</v>
       </c>
@@ -3512,11 +3692,11 @@
         <v>EURAB6E17Y_Quote</v>
       </c>
       <c r="H40" s="11" t="str">
-        <f>_xll.qlSwapRateHelper2(,G40,2,B40,"Target",C40,D40,E40,$H$1,F40,A40,$V$6,,trigger)</f>
-        <v>obj_00904#0006</v>
+        <f>_xll.qlSwapRateHelper2(,G40,2,B40,"Target",C40,D40,E40,$H$1,F40,A40,$W$6,,trigger)</f>
+        <v>obj_00879#0003</v>
       </c>
       <c r="I40" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" s="19">
         <v>10</v>
@@ -3524,35 +3704,39 @@
       <c r="K40" s="19">
         <v>1</v>
       </c>
-      <c r="M40" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N40" s="26" t="e">
+      <c r="M40" s="26" t="str">
+        <v>obj_00872</v>
+      </c>
+      <c r="N40" s="26" t="str">
         <f>_xll.qlRateHelperQuoteName(M40,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O40" s="31" t="e">
+        <v>EURAB6E21Y_Quote</v>
+      </c>
+      <c r="O40" s="31">
         <f>_xll.qlRateHelperRate(M40,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P40" s="27" t="e">
+        <v>1.3919999999999998E-2</v>
+      </c>
+      <c r="P40" s="27">
         <f>_xll.qlRateHelperEarliestDate(M40,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q40" s="27" t="e">
+        <v>42215</v>
+      </c>
+      <c r="Q40" s="27">
         <f>_xll.qlRateHelperLatestDate(M40,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R40" s="31" t="e">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P40)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="S40" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+        <v>49886</v>
+      </c>
+      <c r="R40" s="31">
+        <f>_xll.qlTenorBasisForwardRate($W$13,P40)</f>
+        <v>6.0045907765632627E-4</v>
+      </c>
+      <c r="S40" s="31">
+        <f t="shared" si="4"/>
+        <v>1.3319540922343671E-2</v>
+      </c>
+      <c r="T40" s="39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>15</v>
       </c>
@@ -3576,11 +3760,11 @@
         <v>EURAB6E18Y_Quote</v>
       </c>
       <c r="H41" s="11" t="str">
-        <f>_xll.qlSwapRateHelper2(,G41,2,B41,"Target",C41,D41,E41,$H$1,F41,A41,$V$6,,trigger)</f>
-        <v>obj_008f4#0006</v>
+        <f>_xll.qlSwapRateHelper2(,G41,2,B41,"Target",C41,D41,E41,$H$1,F41,A41,$W$6,,trigger)</f>
+        <v>obj_0086a#0003</v>
       </c>
       <c r="I41" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" s="19">
         <v>10</v>
@@ -3588,35 +3772,39 @@
       <c r="K41" s="19">
         <v>1</v>
       </c>
-      <c r="M41" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N41" s="26" t="e">
+      <c r="M41" s="26" t="str">
+        <v>obj_0085f</v>
+      </c>
+      <c r="N41" s="26" t="str">
         <f>_xll.qlRateHelperQuoteName(M41,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O41" s="31" t="e">
+        <v>EURAB6E22Y_Quote</v>
+      </c>
+      <c r="O41" s="31">
         <f>_xll.qlRateHelperRate(M41,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P41" s="27" t="e">
+        <v>1.3990000000000001E-2</v>
+      </c>
+      <c r="P41" s="27">
         <f>_xll.qlRateHelperEarliestDate(M41,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q41" s="27" t="e">
+        <v>42215</v>
+      </c>
+      <c r="Q41" s="27">
         <f>_xll.qlRateHelperLatestDate(M41,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R41" s="31" t="e">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P41)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="S41" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+        <v>50251</v>
+      </c>
+      <c r="R41" s="31">
+        <f>_xll.qlTenorBasisForwardRate($W$13,P41)</f>
+        <v>6.0045907765632627E-4</v>
+      </c>
+      <c r="S41" s="31">
+        <f t="shared" si="4"/>
+        <v>1.3389540922343674E-2</v>
+      </c>
+      <c r="T41" s="39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>15</v>
       </c>
@@ -3640,11 +3828,11 @@
         <v>EURAB6E19Y_Quote</v>
       </c>
       <c r="H42" s="11" t="str">
-        <f>_xll.qlSwapRateHelper2(,G42,2,B42,"Target",C42,D42,E42,$H$1,F42,A42,$V$6,,trigger)</f>
-        <v>obj_00913#0006</v>
+        <f>_xll.qlSwapRateHelper2(,G42,2,B42,"Target",C42,D42,E42,$H$1,F42,A42,$W$6,,trigger)</f>
+        <v>obj_00876#0003</v>
       </c>
       <c r="I42" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" s="19">
         <v>10</v>
@@ -3652,35 +3840,39 @@
       <c r="K42" s="19">
         <v>1</v>
       </c>
-      <c r="M42" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N42" s="26" t="e">
+      <c r="M42" s="26" t="str">
+        <v>obj_00855</v>
+      </c>
+      <c r="N42" s="26" t="str">
         <f>_xll.qlRateHelperQuoteName(M42,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O42" s="31" t="e">
+        <v>EURAB6E23Y_Quote</v>
+      </c>
+      <c r="O42" s="31">
         <f>_xll.qlRateHelperRate(M42,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P42" s="27" t="e">
+        <v>1.405E-2</v>
+      </c>
+      <c r="P42" s="27">
         <f>_xll.qlRateHelperEarliestDate(M42,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q42" s="27" t="e">
+        <v>42215</v>
+      </c>
+      <c r="Q42" s="27">
         <f>_xll.qlRateHelperLatestDate(M42,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R42" s="31" t="e">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P42)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="S42" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+        <v>50616</v>
+      </c>
+      <c r="R42" s="31">
+        <f>_xll.qlTenorBasisForwardRate($W$13,P42)</f>
+        <v>6.0045907765632627E-4</v>
+      </c>
+      <c r="S42" s="31">
+        <f t="shared" si="4"/>
+        <v>1.3449540922343673E-2</v>
+      </c>
+      <c r="T42" s="39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>15</v>
       </c>
@@ -3704,11 +3896,11 @@
         <v>EURAB6E20Y_Quote</v>
       </c>
       <c r="H43" s="11" t="str">
-        <f>_xll.qlSwapRateHelper2(,G43,2,B43,"Target",C43,D43,E43,$H$1,F43,A43,$V$6,,trigger)</f>
-        <v>obj_008ff#0006</v>
+        <f>_xll.qlSwapRateHelper2(,G43,2,B43,"Target",C43,D43,E43,$H$1,F43,A43,$W$6,,trigger)</f>
+        <v>obj_0085b#0003</v>
       </c>
       <c r="I43" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" s="19">
         <v>10</v>
@@ -3716,35 +3908,39 @@
       <c r="K43" s="19">
         <v>1</v>
       </c>
-      <c r="M43" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N43" s="26" t="e">
+      <c r="M43" s="26" t="str">
+        <v>obj_00858</v>
+      </c>
+      <c r="N43" s="26" t="str">
         <f>_xll.qlRateHelperQuoteName(M43,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O43" s="31" t="e">
+        <v>EURAB6E24Y_Quote</v>
+      </c>
+      <c r="O43" s="31">
         <f>_xll.qlRateHelperRate(M43,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P43" s="27" t="e">
+        <v>1.4100000000000001E-2</v>
+      </c>
+      <c r="P43" s="27">
         <f>_xll.qlRateHelperEarliestDate(M43,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q43" s="27" t="e">
+        <v>42215</v>
+      </c>
+      <c r="Q43" s="27">
         <f>_xll.qlRateHelperLatestDate(M43,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R43" s="31" t="e">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P43)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="S43" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+        <v>50980</v>
+      </c>
+      <c r="R43" s="31">
+        <f>_xll.qlTenorBasisForwardRate($W$13,P43)</f>
+        <v>6.0045907765632627E-4</v>
+      </c>
+      <c r="S43" s="31">
+        <f t="shared" si="4"/>
+        <v>1.3499540922343675E-2</v>
+      </c>
+      <c r="T43" s="39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>15</v>
       </c>
@@ -3768,11 +3964,11 @@
         <v>EURAB6E21Y_Quote</v>
       </c>
       <c r="H44" s="11" t="str">
-        <f>_xll.qlSwapRateHelper2(,G44,2,B44,"Target",C44,D44,E44,$H$1,F44,A44,$V$6,,trigger)</f>
-        <v>obj_0090f#0006</v>
+        <f>_xll.qlSwapRateHelper2(,G44,2,B44,"Target",C44,D44,E44,$H$1,F44,A44,$W$6,,trigger)</f>
+        <v>obj_00872#0003</v>
       </c>
       <c r="I44" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" s="19">
         <v>10</v>
@@ -3780,35 +3976,39 @@
       <c r="K44" s="19">
         <v>1</v>
       </c>
-      <c r="M44" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N44" s="26" t="e">
+      <c r="M44" s="26" t="str">
+        <v>obj_00866</v>
+      </c>
+      <c r="N44" s="26" t="str">
         <f>_xll.qlRateHelperQuoteName(M44,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O44" s="31" t="e">
+        <v>EURAB6E25Y_Quote</v>
+      </c>
+      <c r="O44" s="31">
         <f>_xll.qlRateHelperRate(M44,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P44" s="27" t="e">
+        <v>1.4140000000000002E-2</v>
+      </c>
+      <c r="P44" s="27">
         <f>_xll.qlRateHelperEarliestDate(M44,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q44" s="27" t="e">
+        <v>42215</v>
+      </c>
+      <c r="Q44" s="27">
         <f>_xll.qlRateHelperLatestDate(M44,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R44" s="31" t="e">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P44)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="S44" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+        <v>51347</v>
+      </c>
+      <c r="R44" s="31">
+        <f>_xll.qlTenorBasisForwardRate($W$13,P44)</f>
+        <v>6.0045907765632627E-4</v>
+      </c>
+      <c r="S44" s="31">
+        <f t="shared" si="4"/>
+        <v>1.3539540922343675E-2</v>
+      </c>
+      <c r="T44" s="39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>15</v>
       </c>
@@ -3832,11 +4032,11 @@
         <v>EURAB6E22Y_Quote</v>
       </c>
       <c r="H45" s="11" t="str">
-        <f>_xll.qlSwapRateHelper2(,G45,2,B45,"Target",C45,D45,E45,$H$1,F45,A45,$V$6,,trigger)</f>
-        <v>obj_00908#0006</v>
+        <f>_xll.qlSwapRateHelper2(,G45,2,B45,"Target",C45,D45,E45,$H$1,F45,A45,$W$6,,trigger)</f>
+        <v>obj_0085f#0003</v>
       </c>
       <c r="I45" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" s="19">
         <v>10</v>
@@ -3844,35 +4044,39 @@
       <c r="K45" s="19">
         <v>1</v>
       </c>
-      <c r="M45" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N45" s="26" t="e">
+      <c r="M45" s="26" t="str">
+        <v>obj_0085e</v>
+      </c>
+      <c r="N45" s="26" t="str">
         <f>_xll.qlRateHelperQuoteName(M45,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O45" s="31" t="e">
+        <v>EURAB6E26Y_Quote</v>
+      </c>
+      <c r="O45" s="31">
         <f>_xll.qlRateHelperRate(M45,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P45" s="27" t="e">
+        <v>1.4180000000000002E-2</v>
+      </c>
+      <c r="P45" s="27">
         <f>_xll.qlRateHelperEarliestDate(M45,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q45" s="27" t="e">
+        <v>42215</v>
+      </c>
+      <c r="Q45" s="27">
         <f>_xll.qlRateHelperLatestDate(M45,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R45" s="31" t="e">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P45)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="S45" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+        <v>51712</v>
+      </c>
+      <c r="R45" s="31">
+        <f>_xll.qlTenorBasisForwardRate($W$13,P45)</f>
+        <v>6.0045907765632627E-4</v>
+      </c>
+      <c r="S45" s="31">
+        <f t="shared" si="4"/>
+        <v>1.3579540922343675E-2</v>
+      </c>
+      <c r="T45" s="39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>15</v>
       </c>
@@ -3896,11 +4100,11 @@
         <v>EURAB6E23Y_Quote</v>
       </c>
       <c r="H46" s="11" t="str">
-        <f>_xll.qlSwapRateHelper2(,G46,2,B46,"Target",C46,D46,E46,$H$1,F46,A46,$V$6,,trigger)</f>
-        <v>obj_0090d#0006</v>
+        <f>_xll.qlSwapRateHelper2(,G46,2,B46,"Target",C46,D46,E46,$H$1,F46,A46,$W$6,,trigger)</f>
+        <v>obj_00855#0003</v>
       </c>
       <c r="I46" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" s="19">
         <v>10</v>
@@ -3908,35 +4112,39 @@
       <c r="K46" s="19">
         <v>1</v>
       </c>
-      <c r="M46" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N46" s="26" t="e">
+      <c r="M46" s="26" t="str">
+        <v>obj_0086b</v>
+      </c>
+      <c r="N46" s="26" t="str">
         <f>_xll.qlRateHelperQuoteName(M46,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O46" s="31" t="e">
+        <v>EURAB6E27Y_Quote</v>
+      </c>
+      <c r="O46" s="31">
         <f>_xll.qlRateHelperRate(M46,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P46" s="27" t="e">
+        <v>1.423E-2</v>
+      </c>
+      <c r="P46" s="27">
         <f>_xll.qlRateHelperEarliestDate(M46,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q46" s="27" t="e">
+        <v>42215</v>
+      </c>
+      <c r="Q46" s="27">
         <f>_xll.qlRateHelperLatestDate(M46,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R46" s="31" t="e">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P46)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="S46" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+        <v>52077</v>
+      </c>
+      <c r="R46" s="31">
+        <f>_xll.qlTenorBasisForwardRate($W$13,P46)</f>
+        <v>6.0045907765632627E-4</v>
+      </c>
+      <c r="S46" s="31">
+        <f t="shared" si="4"/>
+        <v>1.3629540922343673E-2</v>
+      </c>
+      <c r="T46" s="39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>15</v>
       </c>
@@ -3960,11 +4168,11 @@
         <v>EURAB6E24Y_Quote</v>
       </c>
       <c r="H47" s="11" t="str">
-        <f>_xll.qlSwapRateHelper2(,G47,2,B47,"Target",C47,D47,E47,$H$1,F47,A47,$V$6,,trigger)</f>
-        <v>obj_00902#0006</v>
+        <f>_xll.qlSwapRateHelper2(,G47,2,B47,"Target",C47,D47,E47,$H$1,F47,A47,$W$6,,trigger)</f>
+        <v>obj_00858#0003</v>
       </c>
       <c r="I47" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" s="19">
         <v>10</v>
@@ -3972,35 +4180,39 @@
       <c r="K47" s="19">
         <v>1</v>
       </c>
-      <c r="M47" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N47" s="26" t="e">
+      <c r="M47" s="26" t="str">
+        <v>obj_00868</v>
+      </c>
+      <c r="N47" s="26" t="str">
         <f>_xll.qlRateHelperQuoteName(M47,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O47" s="31" t="e">
+        <v>EURAB6E28Y_Quote</v>
+      </c>
+      <c r="O47" s="31">
         <f>_xll.qlRateHelperRate(M47,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P47" s="27" t="e">
+        <v>1.427E-2</v>
+      </c>
+      <c r="P47" s="27">
         <f>_xll.qlRateHelperEarliestDate(M47,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q47" s="27" t="e">
+        <v>42215</v>
+      </c>
+      <c r="Q47" s="27">
         <f>_xll.qlRateHelperLatestDate(M47,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R47" s="31" t="e">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P47)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="S47" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+        <v>52442</v>
+      </c>
+      <c r="R47" s="31">
+        <f>_xll.qlTenorBasisForwardRate($W$13,P47)</f>
+        <v>6.0045907765632627E-4</v>
+      </c>
+      <c r="S47" s="31">
+        <f t="shared" si="4"/>
+        <v>1.3669540922343673E-2</v>
+      </c>
+      <c r="T47" s="39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>15</v>
       </c>
@@ -4024,11 +4236,11 @@
         <v>EURAB6E25Y_Quote</v>
       </c>
       <c r="H48" s="11" t="str">
-        <f>_xll.qlSwapRateHelper2(,G48,2,B48,"Target",C48,D48,E48,$H$1,F48,A48,$V$6,,trigger)</f>
-        <v>obj_00901#0006</v>
+        <f>_xll.qlSwapRateHelper2(,G48,2,B48,"Target",C48,D48,E48,$H$1,F48,A48,$W$6,,trigger)</f>
+        <v>obj_00866#0003</v>
       </c>
       <c r="I48" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" s="19">
         <v>10</v>
@@ -4036,35 +4248,39 @@
       <c r="K48" s="19">
         <v>1</v>
       </c>
-      <c r="M48" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N48" s="26" t="e">
+      <c r="M48" s="26" t="str">
+        <v>obj_00867</v>
+      </c>
+      <c r="N48" s="26" t="str">
         <f>_xll.qlRateHelperQuoteName(M48,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O48" s="31" t="e">
+        <v>EURAB6E29Y_Quote</v>
+      </c>
+      <c r="O48" s="31">
         <f>_xll.qlRateHelperRate(M48,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P48" s="27" t="e">
+        <v>1.431E-2</v>
+      </c>
+      <c r="P48" s="27">
         <f>_xll.qlRateHelperEarliestDate(M48,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q48" s="27" t="e">
+        <v>42215</v>
+      </c>
+      <c r="Q48" s="27">
         <f>_xll.qlRateHelperLatestDate(M48,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R48" s="31" t="e">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P48)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="S48" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+        <v>52807</v>
+      </c>
+      <c r="R48" s="31">
+        <f>_xll.qlTenorBasisForwardRate($W$13,P48)</f>
+        <v>6.0045907765632627E-4</v>
+      </c>
+      <c r="S48" s="31">
+        <f t="shared" si="4"/>
+        <v>1.3709540922343673E-2</v>
+      </c>
+      <c r="T48" s="39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>15</v>
       </c>
@@ -4088,11 +4304,11 @@
         <v>EURAB6E26Y_Quote</v>
       </c>
       <c r="H49" s="11" t="str">
-        <f>_xll.qlSwapRateHelper2(,G49,2,B49,"Target",C49,D49,E49,$H$1,F49,A49,$V$6,,trigger)</f>
-        <v>obj_0090a#0006</v>
+        <f>_xll.qlSwapRateHelper2(,G49,2,B49,"Target",C49,D49,E49,$H$1,F49,A49,$W$6,,trigger)</f>
+        <v>obj_0085e#0003</v>
       </c>
       <c r="I49" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" s="19">
         <v>10</v>
@@ -4100,35 +4316,39 @@
       <c r="K49" s="19">
         <v>1</v>
       </c>
-      <c r="M49" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N49" s="26" t="e">
+      <c r="M49" s="26" t="str">
+        <v>obj_00860</v>
+      </c>
+      <c r="N49" s="26" t="str">
         <f>_xll.qlRateHelperQuoteName(M49,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O49" s="31" t="e">
+        <v>EURAB6E30Y_Quote</v>
+      </c>
+      <c r="O49" s="31">
         <f>_xll.qlRateHelperRate(M49,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P49" s="27" t="e">
+        <v>1.4339999999999999E-2</v>
+      </c>
+      <c r="P49" s="27">
         <f>_xll.qlRateHelperEarliestDate(M49,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q49" s="27" t="e">
+        <v>42215</v>
+      </c>
+      <c r="Q49" s="27">
         <f>_xll.qlRateHelperLatestDate(M49,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R49" s="31" t="e">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P49)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="S49" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+        <v>53174</v>
+      </c>
+      <c r="R49" s="31">
+        <f>_xll.qlTenorBasisForwardRate($W$13,P49)</f>
+        <v>6.0045907765632627E-4</v>
+      </c>
+      <c r="S49" s="31">
+        <f t="shared" si="4"/>
+        <v>1.3739540922343672E-2</v>
+      </c>
+      <c r="T49" s="39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>15</v>
       </c>
@@ -4152,11 +4372,11 @@
         <v>EURAB6E27Y_Quote</v>
       </c>
       <c r="H50" s="11" t="str">
-        <f>_xll.qlSwapRateHelper2(,G50,2,B50,"Target",C50,D50,E50,$H$1,F50,A50,$V$6,,trigger)</f>
-        <v>obj_00909#0006</v>
+        <f>_xll.qlSwapRateHelper2(,G50,2,B50,"Target",C50,D50,E50,$H$1,F50,A50,$W$6,,trigger)</f>
+        <v>obj_0086b#0003</v>
       </c>
       <c r="I50" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" s="19">
         <v>10</v>
@@ -4164,35 +4384,39 @@
       <c r="K50" s="19">
         <v>1</v>
       </c>
-      <c r="M50" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N50" s="26" t="e">
+      <c r="M50" s="26" t="str">
+        <v>obj_00857</v>
+      </c>
+      <c r="N50" s="26" t="str">
         <f>_xll.qlRateHelperQuoteName(M50,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O50" s="31" t="e">
+        <v>EURAB6E35Y_Quote</v>
+      </c>
+      <c r="O50" s="31">
         <f>_xll.qlRateHelperRate(M50,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P50" s="27" t="e">
+        <v>1.4419999999999999E-2</v>
+      </c>
+      <c r="P50" s="27">
         <f>_xll.qlRateHelperEarliestDate(M50,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q50" s="27" t="e">
+        <v>42215</v>
+      </c>
+      <c r="Q50" s="27">
         <f>_xll.qlRateHelperLatestDate(M50,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R50" s="31" t="e">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P50)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="S50" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+        <v>54998</v>
+      </c>
+      <c r="R50" s="31">
+        <f>_xll.qlTenorBasisForwardRate($W$13,P50)</f>
+        <v>6.0045907765632627E-4</v>
+      </c>
+      <c r="S50" s="31">
+        <f t="shared" si="4"/>
+        <v>1.3819540922343672E-2</v>
+      </c>
+      <c r="T50" s="39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>15</v>
       </c>
@@ -4216,11 +4440,11 @@
         <v>EURAB6E28Y_Quote</v>
       </c>
       <c r="H51" s="11" t="str">
-        <f>_xll.qlSwapRateHelper2(,G51,2,B51,"Target",C51,D51,E51,$H$1,F51,A51,$V$6,,trigger)</f>
-        <v>obj_008f7#0006</v>
+        <f>_xll.qlSwapRateHelper2(,G51,2,B51,"Target",C51,D51,E51,$H$1,F51,A51,$W$6,,trigger)</f>
+        <v>obj_00868#0003</v>
       </c>
       <c r="I51" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" s="19">
         <v>10</v>
@@ -4228,35 +4452,39 @@
       <c r="K51" s="19">
         <v>1</v>
       </c>
-      <c r="M51" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N51" s="26" t="e">
+      <c r="M51" s="26" t="str">
+        <v>obj_00861</v>
+      </c>
+      <c r="N51" s="26" t="str">
         <f>_xll.qlRateHelperQuoteName(M51,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O51" s="31" t="e">
+        <v>EURAB6E40Y_Quote</v>
+      </c>
+      <c r="O51" s="31">
         <f>_xll.qlRateHelperRate(M51,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P51" s="27" t="e">
+        <v>1.439E-2</v>
+      </c>
+      <c r="P51" s="27">
         <f>_xll.qlRateHelperEarliestDate(M51,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q51" s="27" t="e">
+        <v>42215</v>
+      </c>
+      <c r="Q51" s="27">
         <f>_xll.qlRateHelperLatestDate(M51,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R51" s="31" t="e">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P51)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="S51" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+        <v>56825</v>
+      </c>
+      <c r="R51" s="31">
+        <f>_xll.qlTenorBasisForwardRate($W$13,P51)</f>
+        <v>6.0045907765632627E-4</v>
+      </c>
+      <c r="S51" s="31">
+        <f t="shared" si="4"/>
+        <v>1.3789540922343673E-2</v>
+      </c>
+      <c r="T51" s="39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>15</v>
       </c>
@@ -4280,11 +4508,11 @@
         <v>EURAB6E29Y_Quote</v>
       </c>
       <c r="H52" s="11" t="str">
-        <f>_xll.qlSwapRateHelper2(,G52,2,B52,"Target",C52,D52,E52,$H$1,F52,A52,$V$6,,trigger)</f>
-        <v>obj_008fa#0006</v>
+        <f>_xll.qlSwapRateHelper2(,G52,2,B52,"Target",C52,D52,E52,$H$1,F52,A52,$W$6,,trigger)</f>
+        <v>obj_00867#0003</v>
       </c>
       <c r="I52" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" s="19">
         <v>10</v>
@@ -4292,35 +4520,39 @@
       <c r="K52" s="19">
         <v>1</v>
       </c>
-      <c r="M52" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N52" s="26" t="e">
+      <c r="M52" s="26" t="str">
+        <v>obj_00870</v>
+      </c>
+      <c r="N52" s="26" t="str">
         <f>_xll.qlRateHelperQuoteName(M52,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O52" s="31" t="e">
+        <v>EURAB6E50Y_Quote</v>
+      </c>
+      <c r="O52" s="31">
         <f>_xll.qlRateHelperRate(M52,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P52" s="27" t="e">
+        <v>1.391E-2</v>
+      </c>
+      <c r="P52" s="27">
         <f>_xll.qlRateHelperEarliestDate(M52,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q52" s="27" t="e">
+        <v>42215</v>
+      </c>
+      <c r="Q52" s="27">
         <f>_xll.qlRateHelperLatestDate(M52,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R52" s="31" t="e">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P52)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="S52" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+        <v>60478</v>
+      </c>
+      <c r="R52" s="31">
+        <f>_xll.qlTenorBasisForwardRate($W$13,P52)</f>
+        <v>6.0045907765632627E-4</v>
+      </c>
+      <c r="S52" s="31">
+        <f t="shared" si="4"/>
+        <v>1.3309540922343674E-2</v>
+      </c>
+      <c r="T52" s="39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>15</v>
       </c>
@@ -4344,11 +4576,11 @@
         <v>EURAB6E30Y_Quote</v>
       </c>
       <c r="H53" s="11" t="str">
-        <f>_xll.qlSwapRateHelper2(,G53,2,B53,"Target",C53,D53,E53,$H$1,F53,A53,$V$6,,trigger)</f>
-        <v>obj_00905#0006</v>
+        <f>_xll.qlSwapRateHelper2(,G53,2,B53,"Target",C53,D53,E53,$H$1,F53,A53,$W$6,,trigger)</f>
+        <v>obj_00860#0003</v>
       </c>
       <c r="I53" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" s="19">
         <v>10</v>
@@ -4356,35 +4588,39 @@
       <c r="K53" s="19">
         <v>1</v>
       </c>
-      <c r="M53" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N53" s="26" t="e">
+      <c r="M53" s="26" t="str">
+        <v>obj_0086d</v>
+      </c>
+      <c r="N53" s="26" t="str">
         <f>_xll.qlRateHelperQuoteName(M53,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O53" s="31" t="e">
+        <v>EURAB6E60Y_Quote</v>
+      </c>
+      <c r="O53" s="31">
         <f>_xll.qlRateHelperRate(M53,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P53" s="27" t="e">
+        <v>1.376E-2</v>
+      </c>
+      <c r="P53" s="27">
         <f>_xll.qlRateHelperEarliestDate(M53,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q53" s="27" t="e">
+        <v>42215</v>
+      </c>
+      <c r="Q53" s="27">
         <f>_xll.qlRateHelperLatestDate(M53,trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R53" s="31" t="e">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P53)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="S53" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+        <v>64130</v>
+      </c>
+      <c r="R53" s="31">
+        <f>_xll.qlTenorBasisForwardRate($W$13,P53)</f>
+        <v>6.0045907765632627E-4</v>
+      </c>
+      <c r="S53" s="31">
+        <f t="shared" si="4"/>
+        <v>1.3159540922343673E-2</v>
+      </c>
+      <c r="T53" s="39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>15</v>
       </c>
@@ -4408,11 +4644,11 @@
         <v>EURAB6E35Y_Quote</v>
       </c>
       <c r="H54" s="11" t="str">
-        <f>_xll.qlSwapRateHelper2(,G54,2,B54,"Target",C54,D54,E54,$H$1,F54,A54,$V$6,,trigger)</f>
-        <v>obj_00910#0006</v>
+        <f>_xll.qlSwapRateHelper2(,G54,2,B54,"Target",C54,D54,E54,$H$1,F54,A54,$W$6,,trigger)</f>
+        <v>obj_00857#0003</v>
       </c>
       <c r="I54" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" s="19">
         <v>10</v>
@@ -4440,15 +4676,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="R54" s="31" t="e">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P54)</f>
+        <f>_xll.qlTenorBasisForwardRate($W$13,P54)</f>
         <v>#NUM!</v>
       </c>
       <c r="S54" s="31" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="39" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>15</v>
       </c>
@@ -4472,11 +4712,11 @@
         <v>EURAB6E40Y_Quote</v>
       </c>
       <c r="H55" s="11" t="str">
-        <f>_xll.qlSwapRateHelper2(,G55,2,B55,"Target",C55,D55,E55,$H$1,F55,A55,$V$6,,trigger)</f>
-        <v>obj_008f8#0006</v>
+        <f>_xll.qlSwapRateHelper2(,G55,2,B55,"Target",C55,D55,E55,$H$1,F55,A55,$W$6,,trigger)</f>
+        <v>obj_00861#0003</v>
       </c>
       <c r="I55" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" s="19">
         <v>10</v>
@@ -4504,15 +4744,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="R55" s="31" t="e">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P55)</f>
+        <f>_xll.qlTenorBasisForwardRate($W$13,P55)</f>
         <v>#NUM!</v>
       </c>
       <c r="S55" s="31" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="39" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>15</v>
       </c>
@@ -4536,11 +4780,11 @@
         <v>EURAB6E50Y_Quote</v>
       </c>
       <c r="H56" s="11" t="str">
-        <f>_xll.qlSwapRateHelper2(,G56,2,B56,"Target",C56,D56,E56,$H$1,F56,A56,$V$6,,trigger)</f>
-        <v>obj_00911#0006</v>
+        <f>_xll.qlSwapRateHelper2(,G56,2,B56,"Target",C56,D56,E56,$H$1,F56,A56,$W$6,,trigger)</f>
+        <v>obj_00870#0003</v>
       </c>
       <c r="I56" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" s="19">
         <v>10</v>
@@ -4568,15 +4812,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="R56" s="31" t="e">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P56)</f>
+        <f>_xll.qlTenorBasisForwardRate($W$13,P56)</f>
         <v>#NUM!</v>
       </c>
       <c r="S56" s="31" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="39" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>15</v>
       </c>
@@ -4600,11 +4848,11 @@
         <v>EURAB6E60Y_Quote</v>
       </c>
       <c r="H57" s="14" t="str">
-        <f>_xll.qlSwapRateHelper2(,G57,2,B57,"Target",C57,D57,E57,$H$1,F57,A57,$V$6,,trigger)</f>
-        <v>obj_00917#0006</v>
+        <f>_xll.qlSwapRateHelper2(,G57,2,B57,"Target",C57,D57,E57,$H$1,F57,A57,$W$6,,trigger)</f>
+        <v>obj_0086d#0003</v>
       </c>
       <c r="I57" s="17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" s="20">
         <v>10</v>
@@ -4632,12 +4880,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="R57" s="32" t="e">
-        <f>_xll.qlTenorBasisForwardRate($V$13,P57)</f>
+        <f>_xll.qlTenorBasisForwardRate($W$13,P57)</f>
         <v>#NUM!</v>
       </c>
       <c r="S57" s="32" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
+      </c>
+      <c r="T57" s="40" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
